--- a/test/datafiles/multiepsilon.xlsx
+++ b/test/datafiles/multiepsilon.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="7635" windowHeight="6210"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="7635" windowHeight="6210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bestArmPercentage" sheetId="4" r:id="rId1"/>
-    <sheet name="averageReward" sheetId="5" r:id="rId2"/>
+    <sheet name="averageReward" sheetId="9" r:id="rId2"/>
     <sheet name="cumulativeReward" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_345370015022269" localSheetId="0">bestArmPercentage!$A$1:$GT$5</definedName>
-    <definedName name="_345584612635798" localSheetId="1">averageReward!$A$1:$GT$5</definedName>
     <definedName name="_345671582069857" localSheetId="2">cumulativeReward!$A$1:$GT$5</definedName>
+    <definedName name="_346938693287948" localSheetId="1">averageReward!$A$1:$GT$5</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -230,8 +230,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="345584612635798" type="6" refreshedVersion="3" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="C:\Users\mfaustinelli\Documents\GitHub\GreedyEpsilon\test\datafiles\345584612635798.csv" comma="1">
+  <connection id="2" name="345671582069857" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\mfaustinelli\Documents\GitHub\GreedyEpsilon\test\datafiles\345671582069857.csv" comma="1">
       <textFields count="202">
         <textField/>
         <textField/>
@@ -438,8 +438,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="345671582069857" type="6" refreshedVersion="3" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="C:\Users\mfaustinelli\Documents\GitHub\GreedyEpsilon\test\datafiles\345671582069857.csv" comma="1">
+  <connection id="3" name="346938693287948" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\mfaustinelli\Documents\GitHub\GreedyEpsilon\test\datafiles\346938693287948.csv" comma="1">
       <textFields count="202">
         <textField/>
         <textField/>
@@ -751,8 +751,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.9906190748238488E-2"/>
-          <c:y val="1.0221976021841491E-2"/>
+          <c:x val="2.9906190748238484E-2"/>
+          <c:y val="1.0221976021841489E-2"/>
           <c:w val="0.80002541874694688"/>
           <c:h val="0.93440681095767553"/>
         </c:manualLayout>
@@ -3895,24 +3895,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="48617728"/>
-        <c:axId val="48619520"/>
+        <c:axId val="103523072"/>
+        <c:axId val="103524608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48617728"/>
+        <c:axId val="103523072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48619520"/>
+        <c:crossAx val="103524608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48619520"/>
+        <c:axId val="103524608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3920,7 +3920,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48617728"/>
+        <c:crossAx val="103523072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3933,7 +3933,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3966,609 +3966,609 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>averageReward!$B$1:$GT$1</c:f>
+              <c:f>averageReward!$B$1:$HC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="201"/>
+                <c:ptCount val="210"/>
                 <c:pt idx="0">
-                  <c:v>0.51599999999999902</c:v>
+                  <c:v>0.51600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.999999999999998</c:v>
+                  <c:v>0.504</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.476</c:v>
+                  <c:v>0.51733333333333298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.012</c:v>
+                  <c:v>0.52100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6</c:v>
+                  <c:v>0.52639999999999898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1440000000000001</c:v>
+                  <c:v>0.53266666666666596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6920000000000002</c:v>
+                  <c:v>0.53428571428571403</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.21999999999999</c:v>
+                  <c:v>0.53949999999999898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7439999999999998</c:v>
+                  <c:v>0.54222222222222105</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3559999999999901</c:v>
+                  <c:v>0.54319999999999902</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.9719999999999898</c:v>
+                  <c:v>0.55163636363636304</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5640000000000001</c:v>
+                  <c:v>0.55400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.14</c:v>
+                  <c:v>0.55692307692307697</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.7279999999999998</c:v>
+                  <c:v>0.55885714285714205</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.3239999999999998</c:v>
+                  <c:v>0.56506666666666605</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9479999999999897</c:v>
+                  <c:v>0.56799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.5679999999999996</c:v>
+                  <c:v>0.57199999999999895</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.204000000000001</c:v>
+                  <c:v>0.57422222222222197</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.8559999999999</c:v>
+                  <c:v>0.57747368421052503</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.463999999999899</c:v>
+                  <c:v>0.58219999999999905</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.048</c:v>
+                  <c:v>0.58590476190476104</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.672000000000001</c:v>
+                  <c:v>0.58836363636363498</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>13.28</c:v>
+                  <c:v>0.59269565217391196</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13.923999999999999</c:v>
+                  <c:v>0.59216666666666695</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.555999999999999</c:v>
+                  <c:v>0.59360000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15.24</c:v>
+                  <c:v>0.59523076923076901</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>15.868</c:v>
+                  <c:v>0.59777777777777596</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.536000000000001</c:v>
+                  <c:v>0.60228571428571398</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.2</c:v>
+                  <c:v>0.604275862068965</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17.856000000000002</c:v>
+                  <c:v>0.60413333333333297</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18.524000000000001</c:v>
+                  <c:v>0.606064516129033</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.256</c:v>
+                  <c:v>0.60875000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>19.968</c:v>
+                  <c:v>0.611151515151514</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20.628</c:v>
+                  <c:v>0.61317647058823499</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>21.38</c:v>
+                  <c:v>0.61554285714285695</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>22.079999999999899</c:v>
+                  <c:v>0.61566666666666603</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>22.835999999999999</c:v>
+                  <c:v>0.61816216216216102</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>23.576000000000001</c:v>
+                  <c:v>0.61905263157894697</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>24.303999999999998</c:v>
+                  <c:v>0.621435897435896</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>25.004000000000001</c:v>
+                  <c:v>0.62339999999999895</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>25.74</c:v>
+                  <c:v>0.62643902439024401</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>26.452000000000002</c:v>
+                  <c:v>0.628285714285714</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27.175999999999998</c:v>
+                  <c:v>0.63069767441860503</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>27.896000000000001</c:v>
+                  <c:v>0.63236363636363602</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>28.684000000000001</c:v>
+                  <c:v>0.633066666666666</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>29.456</c:v>
+                  <c:v>0.63504347826086904</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30.224</c:v>
+                  <c:v>0.63685106382978696</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>30.952000000000002</c:v>
+                  <c:v>0.63916666666666599</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>31.683999999999902</c:v>
+                  <c:v>0.64138775510204005</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>32.472000000000001</c:v>
+                  <c:v>0.64415999999999995</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>33.239999999999903</c:v>
+                  <c:v>0.64556862745097998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>34.007999999999903</c:v>
+                  <c:v>0.64792307692307705</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>34.787999999999897</c:v>
+                  <c:v>0.65033962264150902</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>35.5399999999999</c:v>
+                  <c:v>0.65207407407407303</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>36.347999999999999</c:v>
+                  <c:v>0.65359999999999996</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>37.084000000000003</c:v>
+                  <c:v>0.65478571428571397</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>37.835999999999999</c:v>
+                  <c:v>0.65663157894736701</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>38.607999999999898</c:v>
+                  <c:v>0.65841379310344805</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>39.367999999999903</c:v>
+                  <c:v>0.66006779661016901</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>40.1159999999999</c:v>
+                  <c:v>0.66213333333333302</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>40.884</c:v>
+                  <c:v>0.66347540983606501</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>41.68</c:v>
+                  <c:v>0.66529032258064502</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42.443999999999903</c:v>
+                  <c:v>0.66653968253968199</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43.223999999999897</c:v>
+                  <c:v>0.66856249999999895</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>43.972000000000001</c:v>
+                  <c:v>0.670523076923076</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>44.716000000000001</c:v>
+                  <c:v>0.67187878787878696</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>45.515999999999899</c:v>
+                  <c:v>0.67301492537313301</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>46.32</c:v>
+                  <c:v>0.67405882352941104</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>47.131999999999898</c:v>
+                  <c:v>0.675652173913043</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>47.896000000000001</c:v>
+                  <c:v>0.67674285714285598</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>48.6679999999999</c:v>
+                  <c:v>0.67774647887323902</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>49.456000000000003</c:v>
+                  <c:v>0.67916666666666603</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>50.228000000000002</c:v>
+                  <c:v>0.68043835616438397</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>50.975999999999999</c:v>
+                  <c:v>0.68221621621621498</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>51.792000000000002</c:v>
+                  <c:v>0.68373333333333297</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>52.567999999999998</c:v>
+                  <c:v>0.68505263157894702</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>53.351999999999897</c:v>
+                  <c:v>0.68628571428571405</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>54.143999999999998</c:v>
+                  <c:v>0.68748717948717897</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>54.927999999999997</c:v>
+                  <c:v>0.68850632911392295</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>55.723999999999997</c:v>
+                  <c:v>0.68944999999999901</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>56.483999999999902</c:v>
+                  <c:v>0.68997530864197498</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>57.231999999999999</c:v>
+                  <c:v>0.69082926829268299</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>58.08</c:v>
+                  <c:v>0.69185542168674696</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>58.892000000000003</c:v>
+                  <c:v>0.69271428571428595</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>59.707999999999998</c:v>
+                  <c:v>0.69364705882352895</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>60.52</c:v>
+                  <c:v>0.69506976744186</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>61.308</c:v>
+                  <c:v>0.69581609195402305</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>62.143999999999998</c:v>
+                  <c:v>0.69663636363636305</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>62.932000000000002</c:v>
+                  <c:v>0.69766292134831398</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>63.716000000000001</c:v>
+                  <c:v>0.69857777777777796</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>64.524000000000001</c:v>
+                  <c:v>0.69956043956043901</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>65.291999999999902</c:v>
+                  <c:v>0.700478260869564</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>66.12</c:v>
+                  <c:v>0.70086021505376295</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>66.968000000000004</c:v>
+                  <c:v>0.702042553191489</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>67.772000000000006</c:v>
+                  <c:v>0.703452631578947</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>68.591999999999899</c:v>
+                  <c:v>0.70470833333333305</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>69.400000000000006</c:v>
+                  <c:v>0.70585567010309203</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>70.215999999999994</c:v>
+                  <c:v>0.70677551020408202</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>71.075999999999993</c:v>
+                  <c:v>0.70751515151514999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>71.887999999999906</c:v>
+                  <c:v>0.708479999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>72.715999999999994</c:v>
+                  <c:v>0.70946534653465299</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>73.531999999999996</c:v>
+                  <c:v>0.71027450980392104</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>74.352000000000004</c:v>
+                  <c:v>0.71118446601941698</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>75.191999999999993</c:v>
+                  <c:v>0.71199999999999897</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>76.024000000000001</c:v>
+                  <c:v>0.712380952380952</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>76.852000000000004</c:v>
+                  <c:v>0.71305660377358404</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>77.66</c:v>
+                  <c:v>0.71386915887850499</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>78.48</c:v>
+                  <c:v>0.71462962962962895</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>79.291999999999902</c:v>
+                  <c:v>0.71555963302752301</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>80.116</c:v>
+                  <c:v>0.71698181818181805</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>80.923999999999893</c:v>
+                  <c:v>0.71754954954954897</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>81.739999999999895</c:v>
+                  <c:v>0.71850000000000003</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>82.58</c:v>
+                  <c:v>0.71932743362831797</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>83.383999999999901</c:v>
+                  <c:v>0.71978947368420998</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>84.224000000000004</c:v>
+                  <c:v>0.72107826086956395</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>85.031999999999996</c:v>
+                  <c:v>0.72182758620689602</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>85.867999999999896</c:v>
+                  <c:v>0.72273504273504197</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>86.727999999999994</c:v>
+                  <c:v>0.72345762711864303</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>87.584000000000003</c:v>
+                  <c:v>0.72436974789915898</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>88.384</c:v>
+                  <c:v>0.72536666666666605</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>89.215999999999994</c:v>
+                  <c:v>0.72618181818181804</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>89.999999999999901</c:v>
+                  <c:v>0.72678688524590096</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>90.827999999999903</c:v>
+                  <c:v>0.72777235772357696</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>91.644000000000005</c:v>
+                  <c:v>0.72832258064516098</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>92.516000000000005</c:v>
+                  <c:v>0.72921599999999998</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>93.36</c:v>
+                  <c:v>0.72955555555555496</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>94.176000000000002</c:v>
+                  <c:v>0.730456692913386</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>94.983999999999995</c:v>
+                  <c:v>0.73087500000000005</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>95.804000000000002</c:v>
+                  <c:v>0.73162790697674396</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>96.632000000000005</c:v>
+                  <c:v>0.732430769230768</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>97.444000000000003</c:v>
+                  <c:v>0.73312977099236598</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>98.328000000000003</c:v>
+                  <c:v>0.73381818181818104</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>99.179999999999893</c:v>
+                  <c:v>0.73473684210526402</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>100.012</c:v>
+                  <c:v>0.73555223880596998</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>100.843999999999</c:v>
+                  <c:v>0.73602962962962903</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>101.684</c:v>
+                  <c:v>0.73632352941176404</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>102.468</c:v>
+                  <c:v>0.73710948905109397</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>103.33199999999999</c:v>
+                  <c:v>0.73782608695652196</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>104.152</c:v>
+                  <c:v>0.738273381294964</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>104.988</c:v>
+                  <c:v>0.73891428571428497</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>105.82799999999899</c:v>
+                  <c:v>0.73971631205673705</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>106.68</c:v>
+                  <c:v>0.74053521126760502</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>107.496</c:v>
+                  <c:v>0.74125874125874103</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>108.336</c:v>
+                  <c:v>0.74177777777777798</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>109.18</c:v>
+                  <c:v>0.74234482758620601</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>110.036</c:v>
+                  <c:v>0.74290410958904096</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>110.884</c:v>
+                  <c:v>0.743700680272109</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>111.735999999999</c:v>
+                  <c:v>0.74418918918918797</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>112.62</c:v>
+                  <c:v>0.74453691275167799</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>113.452</c:v>
+                  <c:v>0.74482666666666697</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>114.30800000000001</c:v>
+                  <c:v>0.74561589403973705</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>115.124</c:v>
+                  <c:v>0.74605263157894697</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>115.94799999999999</c:v>
+                  <c:v>0.74661437908496697</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>116.8</c:v>
+                  <c:v>0.74711688311688196</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>117.66</c:v>
+                  <c:v>0.74774193548387002</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>118.512</c:v>
+                  <c:v>0.74812820512820399</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>119.352</c:v>
+                  <c:v>0.74889171974522195</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>120.24</c:v>
+                  <c:v>0.749746835443037</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>121.06399999999999</c:v>
+                  <c:v>0.75028930817609996</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>121.92400000000001</c:v>
+                  <c:v>0.75074999999999903</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>122.77200000000001</c:v>
+                  <c:v>0.75145341614906702</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>123.65600000000001</c:v>
+                  <c:v>0.75197530864197504</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>124.476</c:v>
+                  <c:v>0.752343558282208</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>125.316</c:v>
+                  <c:v>0.75270731707317096</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>126.20399999999999</c:v>
+                  <c:v>0.753284848484848</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>127.072</c:v>
+                  <c:v>0.75361445783132497</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>127.932</c:v>
+                  <c:v>0.75403592814371301</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>128.783999999999</c:v>
+                  <c:v>0.75452380952381004</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>129.611999999999</c:v>
+                  <c:v>0.75488757396449602</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>130.45599999999899</c:v>
+                  <c:v>0.75524705882352805</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>131.316</c:v>
+                  <c:v>0.75576608187134198</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>132.16</c:v>
+                  <c:v>0.75625581395348795</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>132.99999999999901</c:v>
+                  <c:v>0.75669364161849695</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>133.88399999999899</c:v>
+                  <c:v>0.75712643678160896</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>134.78</c:v>
+                  <c:v>0.75757714285714295</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>135.60799999999901</c:v>
+                  <c:v>0.75811363636363605</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>136.45599999999999</c:v>
+                  <c:v>0.75871186440677896</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>137.30399999999901</c:v>
+                  <c:v>0.75912359550561803</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>138.15199999999899</c:v>
+                  <c:v>0.75957541899441305</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>138.97200000000001</c:v>
+                  <c:v>0.759777777777778</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>139.83199999999999</c:v>
+                  <c:v>0.76037569060773402</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>140.69199999999901</c:v>
+                  <c:v>0.76092307692307604</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>141.57599999999999</c:v>
+                  <c:v>0.76126775956284198</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>142.45599999999999</c:v>
+                  <c:v>0.76171739130434701</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>143.36399999999901</c:v>
+                  <c:v>0.76201081081081001</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>144.21199999999899</c:v>
+                  <c:v>0.76255913978494605</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>145.012</c:v>
+                  <c:v>0.76286631016042705</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>145.86000000000001</c:v>
+                  <c:v>0.76312765957446904</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>146.696</c:v>
+                  <c:v>0.76351322751322703</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>147.58399999999901</c:v>
+                  <c:v>0.76397894736842098</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>148.476</c:v>
+                  <c:v>0.76418848167539299</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>149.33199999999999</c:v>
+                  <c:v>0.76470833333333299</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>150.17599999999999</c:v>
+                  <c:v>0.76528497409326501</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>150.988</c:v>
+                  <c:v>0.76548453608247402</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>151.83199999999999</c:v>
+                  <c:v>0.76586666666666503</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>152.70400000000001</c:v>
+                  <c:v>0.76624489795918405</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>153.53599999999901</c:v>
+                  <c:v>0.76661928934010204</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>154.38800000000001</c:v>
+                  <c:v>0.76705050505050398</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>155.24</c:v>
+                  <c:v>0.76753768844221004</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>156.084</c:v>
+                  <c:v>0.76803999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4593,609 +4593,609 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>averageReward!$B$2:$GT$2</c:f>
+              <c:f>averageReward!$B$2:$HC$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="201"/>
+                <c:ptCount val="210"/>
                 <c:pt idx="0">
-                  <c:v>0.48399999999999999</c:v>
+                  <c:v>0.48799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99199999999999999</c:v>
+                  <c:v>0.501999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5680000000000001</c:v>
+                  <c:v>0.50533333333333297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0720000000000001</c:v>
+                  <c:v>0.503999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6320000000000001</c:v>
+                  <c:v>0.51439999999999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2080000000000002</c:v>
+                  <c:v>0.52466666666666595</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7959999999999998</c:v>
+                  <c:v>0.53600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3799999999999901</c:v>
+                  <c:v>0.54200000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9720000000000004</c:v>
+                  <c:v>0.54711111111111099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6</c:v>
+                  <c:v>0.55599999999999905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2480000000000002</c:v>
+                  <c:v>0.56545454545454499</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8680000000000003</c:v>
+                  <c:v>0.57733333333333303</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.48</c:v>
+                  <c:v>0.57969230769230695</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.1920000000000002</c:v>
+                  <c:v>0.58599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.8480000000000008</c:v>
+                  <c:v>0.59199999999999897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.5279999999999898</c:v>
+                  <c:v>0.59724999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.215999999999999</c:v>
+                  <c:v>0.60258823529411698</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.932</c:v>
+                  <c:v>0.60466666666666702</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.632</c:v>
+                  <c:v>0.60694736842105101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.2919999999999</c:v>
+                  <c:v>0.60840000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.968</c:v>
+                  <c:v>0.61257142857142799</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.696</c:v>
+                  <c:v>0.616363636363636</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.42</c:v>
+                  <c:v>0.61721739130434705</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15.128</c:v>
+                  <c:v>0.62049999999999905</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15.8079999999999</c:v>
+                  <c:v>0.62447999999999904</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.495999999999999</c:v>
+                  <c:v>0.62753846153846105</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.216000000000001</c:v>
+                  <c:v>0.63007407407407301</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.956</c:v>
+                  <c:v>0.63171428571428501</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.671999999999901</c:v>
+                  <c:v>0.63475862068965505</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.38</c:v>
+                  <c:v>0.63639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20.052</c:v>
+                  <c:v>0.64012903225806495</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20.78</c:v>
+                  <c:v>0.64312499999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.532</c:v>
+                  <c:v>0.64545454545454295</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22.28</c:v>
+                  <c:v>0.64929411764705902</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23.015999999999899</c:v>
+                  <c:v>0.65108571428571305</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23.72</c:v>
+                  <c:v>0.65311111111111098</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24.428000000000001</c:v>
+                  <c:v>0.65481081081081105</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.159999999999901</c:v>
+                  <c:v>0.65715789473684205</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.931999999999999</c:v>
+                  <c:v>0.65866666666666596</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>26.64</c:v>
+                  <c:v>0.66149999999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>27.367999999999999</c:v>
+                  <c:v>0.66351219512195103</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28.128</c:v>
+                  <c:v>0.665904761904761</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>28.876000000000001</c:v>
+                  <c:v>0.66846511627906902</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>29.564</c:v>
+                  <c:v>0.67045454545454497</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>30.32</c:v>
+                  <c:v>0.67199999999999904</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>31.064</c:v>
+                  <c:v>0.67434782608695498</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>31.824000000000002</c:v>
+                  <c:v>0.67489361702127704</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>32.519999999999897</c:v>
+                  <c:v>0.67683333333333195</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>33.207999999999899</c:v>
+                  <c:v>0.67844897959183703</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>33.96</c:v>
+                  <c:v>0.67967999999999995</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>34.707999999999998</c:v>
+                  <c:v>0.68094117647058705</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>35.471999999999902</c:v>
+                  <c:v>0.68223076923076897</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>36.215999999999902</c:v>
+                  <c:v>0.68422641509433901</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>36.96</c:v>
+                  <c:v>0.68570370370370304</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>37.74</c:v>
+                  <c:v>0.68720000000000003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>38.468000000000004</c:v>
+                  <c:v>0.688928571428571</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>39.207999999999998</c:v>
+                  <c:v>0.69038596491227899</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>39.947999999999901</c:v>
+                  <c:v>0.69137931034482702</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>40.735999999999997</c:v>
+                  <c:v>0.69199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>41.48</c:v>
+                  <c:v>0.69313333333333305</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42.195999999999998</c:v>
+                  <c:v>0.69455737704917997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42.963999999999999</c:v>
+                  <c:v>0.69522580645161303</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43.7</c:v>
+                  <c:v>0.69650793650793597</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>44.415999999999897</c:v>
+                  <c:v>0.6973125</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>45.176000000000002</c:v>
+                  <c:v>0.697476923076922</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>45.94</c:v>
+                  <c:v>0.69854545454545403</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>46.731999999999999</c:v>
+                  <c:v>0.69982089552238702</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>47.536000000000001</c:v>
+                  <c:v>0.70041176470588196</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>48.2959999999999</c:v>
+                  <c:v>0.70115942028985501</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>49.011999999999901</c:v>
+                  <c:v>0.702171428571428</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>49.764000000000003</c:v>
+                  <c:v>0.70349295774647802</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>50.543999999999997</c:v>
+                  <c:v>0.704666666666666</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>51.316000000000003</c:v>
+                  <c:v>0.70575342465753499</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>52.091999999999999</c:v>
+                  <c:v>0.70681081081080999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>52.851999999999997</c:v>
+                  <c:v>0.70773333333333199</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>53.664000000000001</c:v>
+                  <c:v>0.70794736842105199</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>54.444000000000003</c:v>
+                  <c:v>0.70841558441558405</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>55.204000000000001</c:v>
+                  <c:v>0.70887179487179497</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>55.972000000000001</c:v>
+                  <c:v>0.70987341772151902</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>56.78</c:v>
+                  <c:v>0.71104999999999996</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>57.548000000000002</c:v>
+                  <c:v>0.71195061728395104</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>58.316000000000003</c:v>
+                  <c:v>0.71263414634146305</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>59.084000000000003</c:v>
+                  <c:v>0.71392771084337303</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>59.86</c:v>
+                  <c:v>0.71457142857142797</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>60.664000000000001</c:v>
+                  <c:v>0.71501176470588101</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>61.451999999999998</c:v>
+                  <c:v>0.71586046511627799</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>62.228000000000002</c:v>
+                  <c:v>0.71682758620689602</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>62.968000000000004</c:v>
+                  <c:v>0.71804545454545399</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>63.752000000000002</c:v>
+                  <c:v>0.71883146067415604</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>64.531999999999996</c:v>
+                  <c:v>0.71951111111110999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>65.323999999999998</c:v>
+                  <c:v>0.71956043956043902</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>66.091999999999899</c:v>
+                  <c:v>0.71969565217391296</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>66.852000000000004</c:v>
+                  <c:v>0.72008602150537504</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>67.627999999999901</c:v>
+                  <c:v>0.72097872340425495</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>68.455999999999904</c:v>
+                  <c:v>0.72138947368421003</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>69.212000000000003</c:v>
+                  <c:v>0.72179166666666705</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>69.9879999999999</c:v>
+                  <c:v>0.72235051546391704</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>70.787999999999997</c:v>
+                  <c:v>0.72371428571428498</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>71.575999999999993</c:v>
+                  <c:v>0.72432323232322904</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>72.367999999999896</c:v>
+                  <c:v>0.72452000000000005</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>73.139999999999901</c:v>
+                  <c:v>0.72522772277227598</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>73.915999999999997</c:v>
+                  <c:v>0.72552941176470498</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>74.664000000000001</c:v>
+                  <c:v>0.72636893203883401</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>75.439999999999898</c:v>
+                  <c:v>0.72719230769230703</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>76.203999999999994</c:v>
+                  <c:v>0.72773333333333201</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>77.003999999999905</c:v>
+                  <c:v>0.72845283018867901</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>77.804000000000002</c:v>
+                  <c:v>0.728934579439252</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>78.584000000000003</c:v>
+                  <c:v>0.72933333333333294</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>79.396000000000001</c:v>
+                  <c:v>0.729504587155963</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>80.171999999999997</c:v>
+                  <c:v>0.73010909090909004</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>80.895999999999901</c:v>
+                  <c:v>0.73012612612612504</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>81.668000000000006</c:v>
+                  <c:v>0.73039285714285695</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>82.4879999999999</c:v>
+                  <c:v>0.73076106194690205</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>83.263999999999996</c:v>
+                  <c:v>0.73105263157894695</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>83.999999999999901</c:v>
+                  <c:v>0.73203478260869503</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>84.771999999999906</c:v>
+                  <c:v>0.73265517241379297</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>85.52</c:v>
+                  <c:v>0.73282051282051197</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>86.296000000000006</c:v>
+                  <c:v>0.73345762711864304</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>87.08</c:v>
+                  <c:v>0.73374789915966299</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>87.851999999999904</c:v>
+                  <c:v>0.73419999999999996</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>88.651999999999902</c:v>
+                  <c:v>0.73438016528925598</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>89.495999999999995</c:v>
+                  <c:v>0.73472131147540898</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>90.251999999999995</c:v>
+                  <c:v>0.73469918699186898</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>90.995999999999995</c:v>
+                  <c:v>0.73483870967741804</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>91.763999999999996</c:v>
+                  <c:v>0.73516800000000004</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>92.531999999999996</c:v>
+                  <c:v>0.73571428571428499</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>93.343999999999994</c:v>
+                  <c:v>0.73606299212598303</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>94.1159999999999</c:v>
+                  <c:v>0.73646875000000001</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>94.923999999999893</c:v>
+                  <c:v>0.73624806201550397</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>95.659999999999897</c:v>
+                  <c:v>0.73689230769230796</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>96.396000000000001</c:v>
+                  <c:v>0.73728244274809096</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>97.195999999999898</c:v>
+                  <c:v>0.73766666666666603</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>97.988</c:v>
+                  <c:v>0.73798496240601397</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>98.759999999999906</c:v>
+                  <c:v>0.73797014925372995</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>99.54</c:v>
+                  <c:v>0.73825185185185105</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>100.359999999999</c:v>
+                  <c:v>0.73858823529411699</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>101.11199999999999</c:v>
+                  <c:v>0.73906569343065598</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>101.84399999999999</c:v>
+                  <c:v>0.73956521739130299</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>102.636</c:v>
+                  <c:v>0.73994244604316495</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>103.38800000000001</c:v>
+                  <c:v>0.74011428571428495</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>104.188</c:v>
+                  <c:v>0.74022695035460995</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>104.928</c:v>
+                  <c:v>0.74045070422535197</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>105.69199999999999</c:v>
+                  <c:v>0.740447552447553</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>106.42400000000001</c:v>
+                  <c:v>0.74077777777777698</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>107.176</c:v>
+                  <c:v>0.74140689655172398</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>107.952</c:v>
+                  <c:v>0.74189041095890396</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>108.72399999999899</c:v>
+                  <c:v>0.74236734693877504</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>109.508</c:v>
+                  <c:v>0.74240540540540501</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>110.29600000000001</c:v>
+                  <c:v>0.74303355704697904</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>110.988</c:v>
+                  <c:v>0.74354666666666602</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>111.812</c:v>
+                  <c:v>0.74376158940397596</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>112.608</c:v>
+                  <c:v>0.74392105263157804</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>113.32</c:v>
+                  <c:v>0.743999999999998</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>114.07599999999999</c:v>
+                  <c:v>0.74410389610389505</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>114.82</c:v>
+                  <c:v>0.74428387096774196</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>115.62</c:v>
+                  <c:v>0.74492307692307602</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>116.432</c:v>
+                  <c:v>0.74512101910827899</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>117.236</c:v>
+                  <c:v>0.74531645569620197</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>118.06</c:v>
+                  <c:v>0.74553459119496701</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>118.83199999999999</c:v>
+                  <c:v>0.74602499999999905</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>119.58799999999999</c:v>
+                  <c:v>0.746285714285714</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>120.312</c:v>
+                  <c:v>0.74637037037037002</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>121.13200000000001</c:v>
+                  <c:v>0.746576687116564</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>121.892</c:v>
+                  <c:v>0.74670731707316995</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>122.68</c:v>
+                  <c:v>0.74669090909090696</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>123.492</c:v>
+                  <c:v>0.74674698795180705</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>124.252</c:v>
+                  <c:v>0.746898203592814</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>125.07599999999999</c:v>
+                  <c:v>0.74673809523809398</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>125.88800000000001</c:v>
+                  <c:v>0.74660355029585701</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>126.68</c:v>
+                  <c:v>0.74661176470588098</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>127.42400000000001</c:v>
+                  <c:v>0.74685380116958699</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>128.183999999999</c:v>
+                  <c:v>0.74693023255813895</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>128.951999999999</c:v>
+                  <c:v>0.74707514450866996</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>129.75599999999901</c:v>
+                  <c:v>0.74712643678160795</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>130.54799999999901</c:v>
+                  <c:v>0.74731428571428504</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>131.36799999999999</c:v>
+                  <c:v>0.74731818181818099</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>132.172</c:v>
+                  <c:v>0.74748022598870001</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>132.97999999999999</c:v>
+                  <c:v>0.74795505617977498</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>133.74399999999901</c:v>
+                  <c:v>0.74835754189944104</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>134.53200000000001</c:v>
+                  <c:v>0.74855555555555597</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>135.31599999999901</c:v>
+                  <c:v>0.74855248618784498</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>136.12</c:v>
+                  <c:v>0.74868131868131804</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>136.891999999999</c:v>
+                  <c:v>0.74891803278688496</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>137.72</c:v>
+                  <c:v>0.74932608695652103</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>138.49599999999899</c:v>
+                  <c:v>0.74925405405405299</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>139.259999999999</c:v>
+                  <c:v>0.749569892473118</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>140.084</c:v>
+                  <c:v>0.74973262032085597</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>140.84</c:v>
+                  <c:v>0.74987234042553097</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>141.636</c:v>
+                  <c:v>0.75011640211640096</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>142.45599999999899</c:v>
+                  <c:v>0.75042105263157899</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>143.231999999999</c:v>
+                  <c:v>0.75059685863874304</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>144.015999999999</c:v>
+                  <c:v>0.75056250000000002</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>144.80399999999901</c:v>
+                  <c:v>0.75065284974093205</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>145.54400000000001</c:v>
+                  <c:v>0.75080412371133998</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>146.316</c:v>
+                  <c:v>0.75097435897435805</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>147.11600000000001</c:v>
+                  <c:v>0.75120408163265195</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>147.9</c:v>
+                  <c:v>0.75143147208121797</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>148.708</c:v>
+                  <c:v>0.75163636363636299</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>149.51599999999999</c:v>
+                  <c:v>0.75181909547738601</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>150.33600000000001</c:v>
+                  <c:v>0.75183999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5220,609 +5220,609 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>averageReward!$B$3:$GT$3</c:f>
+              <c:f>averageReward!$B$3:$HC$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="201"/>
+                <c:ptCount val="210"/>
                 <c:pt idx="0">
-                  <c:v>0.47599999999999898</c:v>
+                  <c:v>0.47199999999999898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.012</c:v>
+                  <c:v>0.496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5720000000000001</c:v>
+                  <c:v>0.50133333333333396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1240000000000001</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6640000000000001</c:v>
+                  <c:v>0.53519999999999901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2160000000000002</c:v>
+                  <c:v>0.53266666666666596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8239999999999998</c:v>
+                  <c:v>0.53657142857142903</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4439999999999902</c:v>
+                  <c:v>0.53449999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0599999999999898</c:v>
+                  <c:v>0.54622222222222205</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6079999999999997</c:v>
+                  <c:v>0.55159999999999898</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1840000000000002</c:v>
+                  <c:v>0.55236363636363595</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.7880000000000003</c:v>
+                  <c:v>0.55833333333333302</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4480000000000004</c:v>
+                  <c:v>0.56338461538461504</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0760000000000005</c:v>
+                  <c:v>0.56742857142857095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.7479999999999905</c:v>
+                  <c:v>0.56906666666666605</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.4439999999999902</c:v>
+                  <c:v>0.57249999999999901</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.119999999999999</c:v>
+                  <c:v>0.57364705882352895</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.772</c:v>
+                  <c:v>0.57822222222222197</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.44</c:v>
+                  <c:v>0.57957894736842097</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.04</c:v>
+                  <c:v>0.5806</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.708</c:v>
+                  <c:v>0.58419047619047604</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.368</c:v>
+                  <c:v>0.58981818181818202</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.036</c:v>
+                  <c:v>0.59165217391304303</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.735999999999899</c:v>
+                  <c:v>0.59416666666666595</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15.388</c:v>
+                  <c:v>0.59775999999999896</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.052</c:v>
+                  <c:v>0.60230769230769199</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16.7</c:v>
+                  <c:v>0.60281481481481403</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.38</c:v>
+                  <c:v>0.60542857142857098</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.015999999999899</c:v>
+                  <c:v>0.606344827586207</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>18.744</c:v>
+                  <c:v>0.60693333333333199</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>19.423999999999999</c:v>
+                  <c:v>0.60941935483870902</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20.087999999999901</c:v>
+                  <c:v>0.61362499999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20.751999999999899</c:v>
+                  <c:v>0.61539393939393905</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>21.4559999999999</c:v>
+                  <c:v>0.61882352941176499</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>22.12</c:v>
+                  <c:v>0.62182857142857095</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>22.755999999999901</c:v>
+                  <c:v>0.62355555555555497</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>23.4239999999999</c:v>
+                  <c:v>0.62594594594594599</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>24.128</c:v>
+                  <c:v>0.62831578947368405</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>24.815999999999999</c:v>
+                  <c:v>0.62964102564102498</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>25.492000000000001</c:v>
+                  <c:v>0.63109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>26.132000000000001</c:v>
+                  <c:v>0.63317073170731597</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>26.788</c:v>
+                  <c:v>0.63438095238095205</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27.492000000000001</c:v>
+                  <c:v>0.63553488372093003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>28.2</c:v>
+                  <c:v>0.63736363636363602</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>28.86</c:v>
+                  <c:v>0.63928888888888802</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>29.547999999999998</c:v>
+                  <c:v>0.64095652173912898</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30.244</c:v>
+                  <c:v>0.64170212765957502</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>30.908000000000001</c:v>
+                  <c:v>0.641166666666666</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>31.568000000000001</c:v>
+                  <c:v>0.64220408163265197</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>32.227999999999902</c:v>
+                  <c:v>0.64351999999999898</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>32.9119999999999</c:v>
+                  <c:v>0.64447058823529302</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>33.559999999999903</c:v>
+                  <c:v>0.64546153846153798</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>34.267999999999901</c:v>
+                  <c:v>0.646188679245283</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>34.944000000000003</c:v>
+                  <c:v>0.64688888888888896</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>35.628</c:v>
+                  <c:v>0.64770909090909001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>36.415999999999897</c:v>
+                  <c:v>0.64864285714285697</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>37.111999999999902</c:v>
+                  <c:v>0.648912280701753</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>37.808</c:v>
+                  <c:v>0.64944827586206799</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>38.5</c:v>
+                  <c:v>0.64955932203389799</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>39.192</c:v>
+                  <c:v>0.64979999999999905</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>39.851999999999897</c:v>
+                  <c:v>0.65003278688524602</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>40.587999999999901</c:v>
+                  <c:v>0.65103225806451503</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>41.271999999999998</c:v>
+                  <c:v>0.65282539682539598</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>41.94</c:v>
+                  <c:v>0.65325</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42.6</c:v>
+                  <c:v>0.65439999999999898</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43.304000000000002</c:v>
+                  <c:v>0.65387878787878795</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43.944000000000003</c:v>
+                  <c:v>0.65379104477611905</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>44.619999999999898</c:v>
+                  <c:v>0.65423529411764603</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>45.295999999999999</c:v>
+                  <c:v>0.65489855072463499</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>46.008000000000003</c:v>
+                  <c:v>0.65594285714285705</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>46.704000000000001</c:v>
+                  <c:v>0.65684507042253504</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>47.4119999999999</c:v>
+                  <c:v>0.65705555555555495</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>48.131999999999998</c:v>
+                  <c:v>0.656931506849316</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>48.84</c:v>
+                  <c:v>0.65708108108108099</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>49.52</c:v>
+                  <c:v>0.65743999999999903</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>50.223999999999897</c:v>
+                  <c:v>0.65731578947368396</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>50.908000000000001</c:v>
+                  <c:v>0.65771428571428603</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>51.607999999999898</c:v>
+                  <c:v>0.65723076923076895</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>52.256</c:v>
+                  <c:v>0.65726582278481005</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>52.884</c:v>
+                  <c:v>0.65849999999999898</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>53.616</c:v>
+                  <c:v>0.65841975308641998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>54.351999999999997</c:v>
+                  <c:v>0.65936585365853595</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>55.036000000000001</c:v>
+                  <c:v>0.65937349397590295</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>55.764000000000003</c:v>
+                  <c:v>0.65990476190476199</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>56.455999999999896</c:v>
+                  <c:v>0.66004705882352899</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>57.155999999999999</c:v>
+                  <c:v>0.66065116279069702</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>57.84</c:v>
+                  <c:v>0.66105747126436698</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>58.512</c:v>
+                  <c:v>0.66145454545454596</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>59.228000000000002</c:v>
+                  <c:v>0.66193258426966095</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>59.94</c:v>
+                  <c:v>0.66266666666666696</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>60.603999999999999</c:v>
+                  <c:v>0.66290109890109805</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>61.335999999999999</c:v>
+                  <c:v>0.66317391304347795</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>62.072000000000003</c:v>
+                  <c:v>0.66288172043010696</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>62.787999999999997</c:v>
+                  <c:v>0.66331914893617006</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>63.463999999999999</c:v>
+                  <c:v>0.66404210526315799</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>64.16</c:v>
+                  <c:v>0.66400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>64.863999999999905</c:v>
+                  <c:v>0.66441237113401996</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>65.611999999999995</c:v>
+                  <c:v>0.664897959183673</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>66.3</c:v>
+                  <c:v>0.66517171717171597</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>66.995999999999896</c:v>
+                  <c:v>0.66544000000000003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>67.676000000000002</c:v>
+                  <c:v>0.665188118811881</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>68.372</c:v>
+                  <c:v>0.665568627450981</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>69.096000000000004</c:v>
+                  <c:v>0.66524271844660199</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>69.767999999999901</c:v>
+                  <c:v>0.66553846153846097</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>70.443999999999903</c:v>
+                  <c:v>0.66544761904761895</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>71.175999999999902</c:v>
+                  <c:v>0.66573584905660299</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>71.908000000000001</c:v>
+                  <c:v>0.665719626168224</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>72.667999999999907</c:v>
+                  <c:v>0.66603703703703698</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>73.42</c:v>
+                  <c:v>0.66638532110091697</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>74.067999999999998</c:v>
+                  <c:v>0.66712727272727201</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>74.768000000000001</c:v>
+                  <c:v>0.66720720720720705</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>75.491999999999905</c:v>
+                  <c:v>0.66771428571428504</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>76.183999999999997</c:v>
+                  <c:v>0.66789380530973497</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>76.867999999999896</c:v>
+                  <c:v>0.66845614035087797</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>77.579999999999899</c:v>
+                  <c:v>0.66879999999999895</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>78.279999999999902</c:v>
+                  <c:v>0.66910344827586199</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>78.995999999999995</c:v>
+                  <c:v>0.66909401709401695</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>79.627999999999901</c:v>
+                  <c:v>0.66959322033898205</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>80.347999999999999</c:v>
+                  <c:v>0.66964705882352804</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>81.039999999999907</c:v>
+                  <c:v>0.66959999999999997</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>81.727999999999895</c:v>
+                  <c:v>0.66978512396694201</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>82.432000000000002</c:v>
+                  <c:v>0.670229508196721</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>83.132000000000005</c:v>
+                  <c:v>0.67050406504064997</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>83.8</c:v>
+                  <c:v>0.67090322580645001</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>84.548000000000002</c:v>
+                  <c:v>0.67097600000000002</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>85.268000000000001</c:v>
+                  <c:v>0.67117460317460198</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>85.963999999999899</c:v>
+                  <c:v>0.67133858267716395</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>86.647999999999897</c:v>
+                  <c:v>0.67131249999999998</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>87.3479999999999</c:v>
+                  <c:v>0.67147286821705399</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>88.067999999999898</c:v>
+                  <c:v>0.67209230769230799</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>88.768000000000001</c:v>
+                  <c:v>0.67215267175572502</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>89.415999999999997</c:v>
+                  <c:v>0.67245454545454597</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>90.14</c:v>
+                  <c:v>0.67239097744360898</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>90.88</c:v>
+                  <c:v>0.67277611940298498</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>91.647999999999897</c:v>
+                  <c:v>0.67279999999999995</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>92.38</c:v>
+                  <c:v>0.67300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>93.075999999999993</c:v>
+                  <c:v>0.67313868613138605</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>93.759999999999906</c:v>
+                  <c:v>0.673275362318839</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>94.503999999999905</c:v>
+                  <c:v>0.673179856115106</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>95.24</c:v>
+                  <c:v>0.673828571428571</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>95.915999999999997</c:v>
+                  <c:v>0.67367375886524805</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>96.628</c:v>
+                  <c:v>0.67383098591549295</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>97.255999999999901</c:v>
+                  <c:v>0.67420979020978999</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>97.992000000000004</c:v>
+                  <c:v>0.67408333333333303</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>98.66</c:v>
+                  <c:v>0.67426206896551699</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>99.367999999999995</c:v>
+                  <c:v>0.674520547945204</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>100.1</c:v>
+                  <c:v>0.67450340136054399</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>100.79600000000001</c:v>
+                  <c:v>0.67445945945945895</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>101.496</c:v>
+                  <c:v>0.67455033557046895</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>102.164</c:v>
+                  <c:v>0.67498666666666596</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>102.852</c:v>
+                  <c:v>0.67520529801324503</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>103.6</c:v>
+                  <c:v>0.67518421052631505</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>104.32</c:v>
+                  <c:v>0.67482352941176404</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>105.07199999999899</c:v>
+                  <c:v>0.67488311688311697</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>105.76</c:v>
+                  <c:v>0.67504516129032199</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>106.48</c:v>
+                  <c:v>0.67528205128205099</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>107.167999999999</c:v>
+                  <c:v>0.675210191082803</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>107.864</c:v>
+                  <c:v>0.67567088607594805</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>108.592</c:v>
+                  <c:v>0.67572327044025104</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>109.28400000000001</c:v>
+                  <c:v>0.67582499999999901</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>109.976</c:v>
+                  <c:v>0.67592546583850899</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>110.64400000000001</c:v>
+                  <c:v>0.67595061728395001</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>111.268</c:v>
+                  <c:v>0.67595092024539805</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>112.02800000000001</c:v>
+                  <c:v>0.67639024390243796</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>112.676</c:v>
+                  <c:v>0.67646060606060499</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>113.408</c:v>
+                  <c:v>0.676265060240963</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>114.152</c:v>
+                  <c:v>0.67645508982035996</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>114.916</c:v>
+                  <c:v>0.67683333333333295</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>115.584</c:v>
+                  <c:v>0.67706508875739602</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>116.292</c:v>
+                  <c:v>0.677223529411765</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>116.96</c:v>
+                  <c:v>0.67726315789473501</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>117.664</c:v>
+                  <c:v>0.67769767441860396</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>118.376</c:v>
+                  <c:v>0.677919075144508</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>119.096</c:v>
+                  <c:v>0.67790804597701004</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>119.776</c:v>
+                  <c:v>0.67814857142856999</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>120.492</c:v>
+                  <c:v>0.678204545454545</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>121.232</c:v>
+                  <c:v>0.67835028248587603</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>121.92</c:v>
+                  <c:v>0.67847191011235797</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>122.65600000000001</c:v>
+                  <c:v>0.67874860335195497</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>123.372</c:v>
+                  <c:v>0.67906666666666604</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>124.01600000000001</c:v>
+                  <c:v>0.67898342541436496</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>124.69199999999999</c:v>
+                  <c:v>0.67912087912087904</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>125.38</c:v>
+                  <c:v>0.67923497267759503</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>126.048</c:v>
+                  <c:v>0.67949999999999999</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>126.74</c:v>
+                  <c:v>0.67987027027027003</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>127.391999999999</c:v>
+                  <c:v>0.67974193548387096</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>128.148</c:v>
+                  <c:v>0.67991443850267397</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>128.84799999999899</c:v>
+                  <c:v>0.68002127659574396</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>129.54</c:v>
+                  <c:v>0.67995767195767098</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>130.28800000000001</c:v>
+                  <c:v>0.67983157894736801</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>130.98399999999901</c:v>
+                  <c:v>0.68006282722513101</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>131.66800000000001</c:v>
+                  <c:v>0.68010416666666595</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>132.34799999999899</c:v>
+                  <c:v>0.68029015544041505</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>133.012</c:v>
+                  <c:v>0.68006185567010302</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>133.707999999999</c:v>
+                  <c:v>0.68004102564102498</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>134.41200000000001</c:v>
+                  <c:v>0.68022448979591699</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>135.10400000000001</c:v>
+                  <c:v>0.68062944162436501</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>135.80000000000001</c:v>
+                  <c:v>0.68088888888888999</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>136.50399999999999</c:v>
+                  <c:v>0.68116582914572799</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>137.184</c:v>
+                  <c:v>0.68144000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5847,609 +5847,609 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>averageReward!$B$4:$GT$4</c:f>
+              <c:f>averageReward!$B$4:$HC$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="201"/>
+                <c:ptCount val="210"/>
                 <c:pt idx="0">
-                  <c:v>0.46400000000000002</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96399999999999997</c:v>
+                  <c:v>0.47199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.49999999999999</c:v>
+                  <c:v>0.499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.052</c:v>
+                  <c:v>0.51299999999999901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5680000000000001</c:v>
+                  <c:v>0.51279999999999903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0959999999999899</c:v>
+                  <c:v>0.51799999999999902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6520000000000001</c:v>
+                  <c:v>0.52057142857142802</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2080000000000002</c:v>
+                  <c:v>0.53249999999999897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7960000000000003</c:v>
+                  <c:v>0.53911111111111099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3280000000000003</c:v>
+                  <c:v>0.53879999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.8760000000000003</c:v>
+                  <c:v>0.53854545454545399</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.452</c:v>
+                  <c:v>0.543333333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.016</c:v>
+                  <c:v>0.54430769230769205</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.64</c:v>
+                  <c:v>0.54542857142857104</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.2359999999999793</c:v>
+                  <c:v>0.54693333333333305</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.8119999999999905</c:v>
+                  <c:v>0.54749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.4239999999999906</c:v>
+                  <c:v>0.54917647058823504</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.9559999999999995</c:v>
+                  <c:v>0.55355555555555602</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.544</c:v>
+                  <c:v>0.55536842105263196</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.139999999999899</c:v>
+                  <c:v>0.55679999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.7959999999999</c:v>
+                  <c:v>0.55333333333333201</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.351999999999901</c:v>
+                  <c:v>0.55581818181818199</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.912000000000001</c:v>
+                  <c:v>0.55617391304347696</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13.532</c:v>
+                  <c:v>0.55700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.151999999999999</c:v>
+                  <c:v>0.55935999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14.76</c:v>
+                  <c:v>0.56200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>15.311999999999999</c:v>
+                  <c:v>0.562962962962963</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15.875999999999999</c:v>
+                  <c:v>0.56457142857142895</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>16.48</c:v>
+                  <c:v>0.56606896551724095</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17.059999999999999</c:v>
+                  <c:v>0.56839999999999902</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17.64</c:v>
+                  <c:v>0.56929032258064505</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18.271999999999899</c:v>
+                  <c:v>0.56887500000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>18.887999999999899</c:v>
+                  <c:v>0.57139393939393901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>19.475999999999999</c:v>
+                  <c:v>0.57317647058823595</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20.088000000000001</c:v>
+                  <c:v>0.57337142857142798</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20.707999999999998</c:v>
+                  <c:v>0.57477777777777705</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21.3</c:v>
+                  <c:v>0.57556756756756799</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21.943999999999999</c:v>
+                  <c:v>0.57599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>22.515999999999998</c:v>
+                  <c:v>0.57723076923076899</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>23.111999999999998</c:v>
+                  <c:v>0.5796</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>23.744</c:v>
+                  <c:v>0.57980487804878</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.408000000000001</c:v>
+                  <c:v>0.580666666666666</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>25.075999999999901</c:v>
+                  <c:v>0.58111627906976704</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>25.724</c:v>
+                  <c:v>0.58272727272727098</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>26.315999999999999</c:v>
+                  <c:v>0.58293333333333297</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>26.972000000000001</c:v>
+                  <c:v>0.58252173913043404</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>27.584</c:v>
+                  <c:v>0.583234042553193</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>28.164000000000001</c:v>
+                  <c:v>0.58450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>28.768000000000001</c:v>
+                  <c:v>0.58555102040816198</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>29.384</c:v>
+                  <c:v>0.58584000000000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>29.963999999999999</c:v>
+                  <c:v>0.58752941176470497</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>30.547999999999998</c:v>
+                  <c:v>0.58861538461538399</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>31.196000000000002</c:v>
+                  <c:v>0.58860377358490501</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>31.795999999999999</c:v>
+                  <c:v>0.588666666666667</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>32.408000000000001</c:v>
+                  <c:v>0.58829090909090898</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>32.991999999999997</c:v>
+                  <c:v>0.58857142857142797</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>33.584000000000003</c:v>
+                  <c:v>0.58947368421052604</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>34.171999999999898</c:v>
+                  <c:v>0.590482758620689</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>34.811999999999998</c:v>
+                  <c:v>0.59111864406779602</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>35.463999999999899</c:v>
+                  <c:v>0.59199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>36.071999999999903</c:v>
+                  <c:v>0.59219672131147505</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>36.699999999999903</c:v>
+                  <c:v>0.59283870967741803</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>37.315999999999903</c:v>
+                  <c:v>0.59288888888888802</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>37.983999999999902</c:v>
+                  <c:v>0.59362499999999996</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>38.599999999999902</c:v>
+                  <c:v>0.59403076923076803</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>39.215999999999902</c:v>
+                  <c:v>0.59484848484848496</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>39.831999999999901</c:v>
+                  <c:v>0.59540298507462597</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>40.415999999999897</c:v>
+                  <c:v>0.59699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>41.088000000000001</c:v>
+                  <c:v>0.59669565217391196</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>41.643999999999899</c:v>
+                  <c:v>0.59645714285714302</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42.268000000000001</c:v>
+                  <c:v>0.59622535211267502</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42.856000000000002</c:v>
+                  <c:v>0.59605555555555401</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43.436</c:v>
+                  <c:v>0.59671232876712299</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>44.128</c:v>
+                  <c:v>0.59724324324324296</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>44.82</c:v>
+                  <c:v>0.59749333333333199</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>45.4359999999999</c:v>
+                  <c:v>0.59757894736841999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>46.084000000000003</c:v>
+                  <c:v>0.59750649350649299</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>46.655999999999899</c:v>
+                  <c:v>0.59753846153846102</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>47.228000000000002</c:v>
+                  <c:v>0.59721518987341804</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>47.808</c:v>
+                  <c:v>0.59775</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>48.427999999999997</c:v>
+                  <c:v>0.59832098765432096</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>49.067999999999998</c:v>
+                  <c:v>0.59858536585365796</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>49.655999999999999</c:v>
+                  <c:v>0.599373493975903</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>50.271999999999998</c:v>
+                  <c:v>0.59933333333333205</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>50.891999999999904</c:v>
+                  <c:v>0.59919999999999896</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>51.54</c:v>
+                  <c:v>0.59958139534883603</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>52.116</c:v>
+                  <c:v>0.59977011494252797</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>52.752000000000002</c:v>
+                  <c:v>0.60068181818181798</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>53.375999999999998</c:v>
+                  <c:v>0.60107865168539198</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>53.999999999999901</c:v>
+                  <c:v>0.60137777777777801</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>54.636000000000003</c:v>
+                  <c:v>0.60149450549450401</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>55.212000000000003</c:v>
+                  <c:v>0.60165217391304304</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>55.835999999999999</c:v>
+                  <c:v>0.60146236559139798</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>56.432000000000002</c:v>
+                  <c:v>0.60144680851063903</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>57.02</c:v>
+                  <c:v>0.60113684210526397</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>57.603999999999999</c:v>
+                  <c:v>0.60095833333333304</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>58.195999999999998</c:v>
+                  <c:v>0.60152577319587597</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>58.851999999999997</c:v>
+                  <c:v>0.60159183673469396</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>59.4</c:v>
+                  <c:v>0.60202020202020201</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>60.064</c:v>
+                  <c:v>0.60211999999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>60.671999999999997</c:v>
+                  <c:v>0.60186138613861295</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>61.271999999999998</c:v>
+                  <c:v>0.60172549019607902</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>61.911999999999999</c:v>
+                  <c:v>0.60182524271844595</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>62.531999999999996</c:v>
+                  <c:v>0.60207692307692195</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>63.171999999999997</c:v>
+                  <c:v>0.601866666666665</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>63.907999999999902</c:v>
+                  <c:v>0.60237735849056595</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>64.551999999999893</c:v>
+                  <c:v>0.60276635514018595</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>65.171999999999898</c:v>
+                  <c:v>0.60314814814814799</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>65.795999999999907</c:v>
+                  <c:v>0.60341284403669604</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>66.451999999999998</c:v>
+                  <c:v>0.60403636363636304</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>67.091999999999999</c:v>
+                  <c:v>0.60389189189189196</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>67.772000000000006</c:v>
+                  <c:v>0.60385714285714198</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>68.387999999999906</c:v>
+                  <c:v>0.60428318584070695</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>69.007999999999896</c:v>
+                  <c:v>0.60445614035087802</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>69.671999999999997</c:v>
+                  <c:v>0.60417391304347601</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>70.2439999999999</c:v>
+                  <c:v>0.60441379310344701</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>70.803999999999903</c:v>
+                  <c:v>0.60451282051281996</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>71.427999999999997</c:v>
+                  <c:v>0.60461016949152502</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>72.024000000000001</c:v>
+                  <c:v>0.60460504201680598</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>72.635999999999996</c:v>
+                  <c:v>0.60463333333333302</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>73.259999999999906</c:v>
+                  <c:v>0.60469421487603203</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>73.86</c:v>
+                  <c:v>0.60442622950819702</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>74.436000000000007</c:v>
+                  <c:v>0.60461788617886203</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>75.099999999999895</c:v>
+                  <c:v>0.60487096774193505</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>75.759999999999906</c:v>
+                  <c:v>0.60486399999999996</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>76.355999999999895</c:v>
+                  <c:v>0.60504761904761895</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>77.016000000000005</c:v>
+                  <c:v>0.605070866141732</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>77.623999999999896</c:v>
+                  <c:v>0.60481249999999998</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>78.239999999999895</c:v>
+                  <c:v>0.60520930232558101</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>78.847999999999999</c:v>
+                  <c:v>0.60504615384615301</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>79.471999999999994</c:v>
+                  <c:v>0.60503816793892995</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>80.079999999999899</c:v>
+                  <c:v>0.60496969696969605</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>80.735999999999905</c:v>
+                  <c:v>0.60460150375939903</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>81.323999999999899</c:v>
+                  <c:v>0.60444776119402899</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>81.896000000000001</c:v>
+                  <c:v>0.60471111111110998</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>82.471999999999994</c:v>
+                  <c:v>0.60494117647058798</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>83.075999999999894</c:v>
+                  <c:v>0.60519708029197095</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>83.664000000000001</c:v>
+                  <c:v>0.60542028985507101</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>84.311999999999998</c:v>
+                  <c:v>0.60555395683453195</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>84.915999999999897</c:v>
+                  <c:v>0.60545714285714303</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>85.5</c:v>
+                  <c:v>0.60578723404255397</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>86.111999999999895</c:v>
+                  <c:v>0.60597183098591501</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>86.707999999999998</c:v>
+                  <c:v>0.60590209790209804</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>87.296000000000006</c:v>
+                  <c:v>0.60599999999999898</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>87.908000000000001</c:v>
+                  <c:v>0.60601379310344805</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>88.52</c:v>
+                  <c:v>0.60578082191780802</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>89.123999999999995</c:v>
+                  <c:v>0.60595918367346902</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>89.7319999999999</c:v>
+                  <c:v>0.606459459459459</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>90.335999999999999</c:v>
+                  <c:v>0.60687248322147602</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>90.932000000000002</c:v>
+                  <c:v>0.60655999999999999</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>91.563999999999993</c:v>
+                  <c:v>0.60680794701986795</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>92.168000000000006</c:v>
+                  <c:v>0.60726315789473595</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>92.811999999999998</c:v>
+                  <c:v>0.60690196078431302</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>93.376000000000005</c:v>
+                  <c:v>0.60716883116883102</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>93.983999999999895</c:v>
+                  <c:v>0.60756129032257999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>94.6159999999999</c:v>
+                  <c:v>0.607615384615384</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>95.183999999999997</c:v>
+                  <c:v>0.60777070063694205</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>95.771999999999906</c:v>
+                  <c:v>0.60779746835442905</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>96.351999999999904</c:v>
+                  <c:v>0.60784905660377297</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>96.988</c:v>
+                  <c:v>0.60774999999999901</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>97.571999999999903</c:v>
+                  <c:v>0.60770186335403698</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>98.223999999999904</c:v>
+                  <c:v>0.60787654320987605</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>98.884</c:v>
+                  <c:v>0.60773006134969298</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>99.504000000000005</c:v>
+                  <c:v>0.60785365853658502</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>100.155999999999</c:v>
+                  <c:v>0.60768484848484905</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>100.77999999999901</c:v>
+                  <c:v>0.60730120481927596</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>101.396</c:v>
+                  <c:v>0.607520958083831</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>101.979999999999</c:v>
+                  <c:v>0.607261904761904</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>102.623999999999</c:v>
+                  <c:v>0.60738461538461397</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>103.236</c:v>
+                  <c:v>0.60727058823529301</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>103.82</c:v>
+                  <c:v>0.60753216374268904</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>104.487999999999</c:v>
+                  <c:v>0.60769767441860501</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>105.099999999999</c:v>
+                  <c:v>0.607768786127167</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>105.684</c:v>
+                  <c:v>0.60779310344827597</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>106.275999999999</c:v>
+                  <c:v>0.60781714285714294</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>106.848</c:v>
+                  <c:v>0.60820454545454505</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>107.524</c:v>
+                  <c:v>0.60842937853107304</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>108.172</c:v>
+                  <c:v>0.60874157303370502</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>108.79600000000001</c:v>
+                  <c:v>0.60871508379888195</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>109.44</c:v>
+                  <c:v>0.60888888888888804</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>110.04</c:v>
+                  <c:v>0.60897237569060703</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>110.615999999999</c:v>
+                  <c:v>0.60892307692307701</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>111.264</c:v>
+                  <c:v>0.60896174863387897</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>111.916</c:v>
+                  <c:v>0.60926086956521697</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>112.544</c:v>
+                  <c:v>0.60929729729729698</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>113.136</c:v>
+                  <c:v>0.60959139784946204</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>113.736</c:v>
+                  <c:v>0.60936898395721795</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>114.4</c:v>
+                  <c:v>0.609510638297872</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>115.02800000000001</c:v>
+                  <c:v>0.60926984126984096</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>115.608</c:v>
+                  <c:v>0.60926315789473695</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>116.252</c:v>
+                  <c:v>0.60936125654450202</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>116.84</c:v>
+                  <c:v>0.60943749999999897</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>117.42400000000001</c:v>
+                  <c:v>0.60953367875647702</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>118.032</c:v>
+                  <c:v>0.60956701030927796</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>118.648</c:v>
+                  <c:v>0.60951794871794895</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>119.21599999999999</c:v>
+                  <c:v>0.60981632653061202</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>119.816</c:v>
+                  <c:v>0.60982741116751205</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>120.44</c:v>
+                  <c:v>0.60977777777777797</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>121.02</c:v>
+                  <c:v>0.609768844221105</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>121.684</c:v>
+                  <c:v>0.60962000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6474,633 +6474,633 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>averageReward!$B$5:$GT$5</c:f>
+              <c:f>averageReward!$B$5:$HC$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="201"/>
+                <c:ptCount val="210"/>
                 <c:pt idx="0">
                   <c:v>0.47199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.028</c:v>
+                  <c:v>0.496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.532</c:v>
+                  <c:v>0.49199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.992</c:v>
+                  <c:v>0.48499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4839999999999902</c:v>
+                  <c:v>0.49919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.992</c:v>
+                  <c:v>0.50266666666666604</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.508</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0519999999999996</c:v>
+                  <c:v>0.49249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5679999999999996</c:v>
+                  <c:v>0.49288888888888799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0439999999999996</c:v>
+                  <c:v>0.49759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5559999999999903</c:v>
+                  <c:v>0.498181818181818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.08</c:v>
+                  <c:v>0.501</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5759999999999996</c:v>
+                  <c:v>0.50061538461538402</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.1360000000000001</c:v>
+                  <c:v>0.502857142857143</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.6159999999999997</c:v>
+                  <c:v>0.50586666666666602</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.1519999999999992</c:v>
+                  <c:v>0.50749999999999895</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.6999999999999993</c:v>
+                  <c:v>0.50870588235294101</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.2319999999999904</c:v>
+                  <c:v>0.51222222222222102</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.7319999999999904</c:v>
+                  <c:v>0.51452631578947405</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.26</c:v>
+                  <c:v>0.51739999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.755999999999901</c:v>
+                  <c:v>0.51923809523809505</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.308</c:v>
+                  <c:v>0.52181818181818196</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11.8639999999999</c:v>
+                  <c:v>0.52260869565217305</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12.431999999999899</c:v>
+                  <c:v>0.52133333333333298</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.952</c:v>
+                  <c:v>0.52303999999999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13.496</c:v>
+                  <c:v>0.52323076923077005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14.068</c:v>
+                  <c:v>0.52385185185185101</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14.584</c:v>
+                  <c:v>0.52514285714285702</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.036</c:v>
+                  <c:v>0.52593103448275802</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.552</c:v>
+                  <c:v>0.52733333333333399</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.091999999999899</c:v>
+                  <c:v>0.52864516129032202</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16.623999999999899</c:v>
+                  <c:v>0.52837500000000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17.135999999999999</c:v>
+                  <c:v>0.52812121212121199</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17.692</c:v>
+                  <c:v>0.52835294117647003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>18.256</c:v>
+                  <c:v>0.528914285714285</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18.788</c:v>
+                  <c:v>0.52977777777777801</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>19.344000000000001</c:v>
+                  <c:v>0.53037837837837798</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>19.896000000000001</c:v>
+                  <c:v>0.53010526315789497</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20.456</c:v>
+                  <c:v>0.52912820512820402</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>21.004000000000001</c:v>
+                  <c:v>0.53029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>21.543999999999901</c:v>
+                  <c:v>0.53082926829268196</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>22.071999999999999</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>22.655999999999999</c:v>
+                  <c:v>0.53032558139534802</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.219999999999899</c:v>
+                  <c:v>0.53018181818181798</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.719999999999899</c:v>
+                  <c:v>0.52915555555555405</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>24.236000000000001</c:v>
+                  <c:v>0.529826086956522</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>24.795999999999999</c:v>
+                  <c:v>0.52953191489361695</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>25.399999999999899</c:v>
+                  <c:v>0.53091666666666604</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>25.931999999999999</c:v>
+                  <c:v>0.53069387755102004</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>26.483999999999899</c:v>
+                  <c:v>0.53136000000000005</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>27.012</c:v>
+                  <c:v>0.53270588235294003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>27.576000000000001</c:v>
+                  <c:v>0.532076923076923</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>28.164000000000001</c:v>
+                  <c:v>0.53298113207547104</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>28.675999999999998</c:v>
+                  <c:v>0.533481481481481</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>29.212</c:v>
+                  <c:v>0.53309090909090895</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>29.724</c:v>
+                  <c:v>0.53321428571428497</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>30.248000000000001</c:v>
+                  <c:v>0.53361403508771899</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>30.815999999999999</c:v>
+                  <c:v>0.53358620689655001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>31.391999999999999</c:v>
+                  <c:v>0.53342372881355904</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>31.9</c:v>
+                  <c:v>0.53306666666666602</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>32.4359999999999</c:v>
+                  <c:v>0.53357377049180299</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>33.024000000000001</c:v>
+                  <c:v>0.53412903225806396</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>33.520000000000003</c:v>
+                  <c:v>0.53384126984126901</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>34.064</c:v>
+                  <c:v>0.53393749999999995</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>34.591999999999899</c:v>
+                  <c:v>0.53396923076923097</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>35.167999999999999</c:v>
+                  <c:v>0.53381818181818197</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>35.711999999999897</c:v>
+                  <c:v>0.53367164179104398</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>36.26</c:v>
+                  <c:v>0.53358823529411703</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>36.771999999999998</c:v>
+                  <c:v>0.53327536231883998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>37.267999999999901</c:v>
+                  <c:v>0.53331428571428596</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>37.875999999999998</c:v>
+                  <c:v>0.53357746478873103</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>38.384</c:v>
+                  <c:v>0.53355555555555501</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>38.927999999999997</c:v>
+                  <c:v>0.53353424657534199</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>39.479999999999997</c:v>
+                  <c:v>0.53335135135135103</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>40.031999999999897</c:v>
+                  <c:v>0.53274666666666604</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>40.619999999999997</c:v>
+                  <c:v>0.53347368421052599</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>41.176000000000002</c:v>
+                  <c:v>0.53402597402597396</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>41.752000000000002</c:v>
+                  <c:v>0.533641025641025</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42.335999999999999</c:v>
+                  <c:v>0.53362025316455697</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42.88</c:v>
+                  <c:v>0.53325</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>43.44</c:v>
+                  <c:v>0.53343209876543196</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>44.003999999999998</c:v>
+                  <c:v>0.53356097560975502</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>44.479999999999897</c:v>
+                  <c:v>0.53407228915662597</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>45.043999999999997</c:v>
+                  <c:v>0.53414285714285603</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>45.588000000000001</c:v>
+                  <c:v>0.53416470588235299</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>46.152000000000001</c:v>
+                  <c:v>0.53399999999999903</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>46.683999999999997</c:v>
+                  <c:v>0.53434482758620705</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>47.192</c:v>
+                  <c:v>0.53395454545454502</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>47.695999999999998</c:v>
+                  <c:v>0.53420224719101095</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>48.244</c:v>
+                  <c:v>0.53457777777777804</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>48.835999999999999</c:v>
+                  <c:v>0.53406593406593295</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>49.311999999999998</c:v>
+                  <c:v>0.53386956521739104</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>49.863999999999997</c:v>
+                  <c:v>0.53410752688171903</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>50.411999999999999</c:v>
+                  <c:v>0.53502127659574505</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>50.959999999999901</c:v>
+                  <c:v>0.53545263157894696</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>51.484000000000002</c:v>
+                  <c:v>0.53600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>52.036000000000001</c:v>
+                  <c:v>0.53653608247422602</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>52.552</c:v>
+                  <c:v>0.53673469387755002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>53.027999999999999</c:v>
+                  <c:v>0.53680808080807996</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>53.603999999999999</c:v>
+                  <c:v>0.53683999999999898</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>54.143999999999998</c:v>
+                  <c:v>0.53683168316831698</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>54.647999999999897</c:v>
+                  <c:v>0.536392156862745</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>55.228000000000002</c:v>
+                  <c:v>0.536233009708737</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>55.811999999999998</c:v>
+                  <c:v>0.53611538461538399</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>56.404000000000003</c:v>
+                  <c:v>0.53599999999999903</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>56.936</c:v>
+                  <c:v>0.53592452830188697</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>57.444000000000003</c:v>
+                  <c:v>0.53618691588784995</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>57.927999999999997</c:v>
+                  <c:v>0.536481481481481</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>58.472000000000001</c:v>
+                  <c:v>0.535743119266054</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>59.052</c:v>
+                  <c:v>0.53614545454545404</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>59.616</c:v>
+                  <c:v>0.53574774774774703</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>60.171999999999997</c:v>
+                  <c:v>0.53525</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>60.671999999999997</c:v>
+                  <c:v>0.53532743362831703</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>61.268000000000001</c:v>
+                  <c:v>0.53557894736842104</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>61.76</c:v>
+                  <c:v>0.53551304347826001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>62.247999999999998</c:v>
+                  <c:v>0.53541379310344706</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>62.787999999999997</c:v>
+                  <c:v>0.53500854700854705</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>63.287999999999997</c:v>
+                  <c:v>0.53454237288135598</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>63.816000000000003</c:v>
+                  <c:v>0.53458823529411703</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>64.375999999999905</c:v>
+                  <c:v>0.53480000000000005</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>64.924000000000007</c:v>
+                  <c:v>0.53464462809917301</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>65.471999999999895</c:v>
+                  <c:v>0.53439344262294997</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>66.035999999999902</c:v>
+                  <c:v>0.533983739837397</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>66.575999999999993</c:v>
+                  <c:v>0.53393548387096801</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>67.048000000000002</c:v>
+                  <c:v>0.53391999999999895</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>67.647999999999996</c:v>
+                  <c:v>0.53425396825396798</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>68.176000000000002</c:v>
+                  <c:v>0.53461417322834603</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>68.72</c:v>
+                  <c:v>0.53481250000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>69.296000000000006</c:v>
+                  <c:v>0.53503875968992198</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>69.811999999999998</c:v>
+                  <c:v>0.53559999999999997</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>70.331999999999894</c:v>
+                  <c:v>0.53554198473282499</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>70.867999999999896</c:v>
+                  <c:v>0.53575757575757499</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>71.427999999999997</c:v>
+                  <c:v>0.53615037593984904</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>71.94</c:v>
+                  <c:v>0.53635820895522401</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>72.451999999999899</c:v>
+                  <c:v>0.53650370370370404</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>73.06</c:v>
+                  <c:v>0.53647058823529303</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>73.531999999999996</c:v>
+                  <c:v>0.536379562043796</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>74.12</c:v>
+                  <c:v>0.53571014492753399</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>74.652000000000001</c:v>
+                  <c:v>0.53594244604316499</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>75.139999999999901</c:v>
+                  <c:v>0.53614285714285803</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>75.683999999999997</c:v>
+                  <c:v>0.53648226950354705</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>76.188000000000002</c:v>
+                  <c:v>0.53639436619718295</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>76.695999999999898</c:v>
+                  <c:v>0.53630769230769204</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>77.215999999999894</c:v>
+                  <c:v>0.53669444444444503</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>77.731999999999999</c:v>
+                  <c:v>0.53688275862068902</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>78.248000000000005</c:v>
+                  <c:v>0.53715068493150597</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>78.808000000000007</c:v>
+                  <c:v>0.53706122448979599</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>79.316000000000003</c:v>
+                  <c:v>0.53702702702702698</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>79.852000000000004</c:v>
+                  <c:v>0.53734228187919497</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>80.379999999999896</c:v>
+                  <c:v>0.53746666666666698</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>80.908000000000001</c:v>
+                  <c:v>0.53782781456953499</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>81.451999999999998</c:v>
+                  <c:v>0.53792105263157897</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>82.043999999999897</c:v>
+                  <c:v>0.53764705882352903</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>82.596000000000004</c:v>
+                  <c:v>0.53753246753246697</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>83.151999999999902</c:v>
+                  <c:v>0.53752258064516101</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>83.683999999999997</c:v>
+                  <c:v>0.53735897435897395</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>84.227999999999994</c:v>
+                  <c:v>0.53729936305732495</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>84.751999999999995</c:v>
+                  <c:v>0.53734177215189904</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>85.256</c:v>
+                  <c:v>0.53740880503144595</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>85.775999999999897</c:v>
+                  <c:v>0.537775</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>86.367999999999995</c:v>
+                  <c:v>0.53776397515527996</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>86.963999999999899</c:v>
+                  <c:v>0.538024691358024</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>87.492000000000004</c:v>
+                  <c:v>0.53796319018404803</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>88.043999999999997</c:v>
+                  <c:v>0.53775609756097598</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>88.543999999999997</c:v>
+                  <c:v>0.53772121212121105</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>89.111999999999995</c:v>
+                  <c:v>0.53790361445783097</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>89.655999999999906</c:v>
+                  <c:v>0.53820359281437102</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>90.203999999999994</c:v>
+                  <c:v>0.53807142857142798</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>90.775999999999897</c:v>
+                  <c:v>0.53789349112425899</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>91.263999999999996</c:v>
+                  <c:v>0.53809411764705894</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>91.823999999999998</c:v>
+                  <c:v>0.53803508771929898</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>92.355999999999995</c:v>
+                  <c:v>0.53816279069767403</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>92.891999999999996</c:v>
+                  <c:v>0.53831213872832395</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>93.383999999999901</c:v>
+                  <c:v>0.53882758620689597</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>93.924000000000007</c:v>
+                  <c:v>0.53871999999999898</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>94.435999999999893</c:v>
+                  <c:v>0.538886363636363</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>94.9879999999999</c:v>
+                  <c:v>0.53900564971751397</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>95.543999999999997</c:v>
+                  <c:v>0.53883146067415599</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>96.123999999999896</c:v>
+                  <c:v>0.53877094972066997</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>96.62</c:v>
+                  <c:v>0.53875555555555499</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>97.155999999999906</c:v>
+                  <c:v>0.53867403314917095</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>97.712000000000003</c:v>
+                  <c:v>0.53832967032967005</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>98.207999999999899</c:v>
+                  <c:v>0.538229508196721</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>98.727999999999994</c:v>
+                  <c:v>0.53821739130434698</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>99.248000000000005</c:v>
+                  <c:v>0.53783783783783701</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>99.772000000000006</c:v>
+                  <c:v>0.53791397849462297</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>100.28</c:v>
+                  <c:v>0.53805347593582797</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>100.864</c:v>
+                  <c:v>0.53804255319148897</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>101.456</c:v>
+                  <c:v>0.53788359788359696</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>102.036</c:v>
+                  <c:v>0.53791578947368401</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>102.55999999999899</c:v>
+                  <c:v>0.53796858638743394</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>103.116</c:v>
+                  <c:v>0.53789583333333302</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>103.619999999999</c:v>
+                  <c:v>0.53788601036269401</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>104.215999999999</c:v>
+                  <c:v>0.53795876288659705</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>104.77200000000001</c:v>
+                  <c:v>0.53807179487179402</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>105.3</c:v>
+                  <c:v>0.53814285714285703</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>105.884</c:v>
+                  <c:v>0.53827411167512695</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>106.444</c:v>
+                  <c:v>0.53842424242424303</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>106.968</c:v>
+                  <c:v>0.53859296482412</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>107.5</c:v>
+                  <c:v>0.53864000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="48043520"/>
-        <c:axId val="48045056"/>
+        <c:axId val="56337152"/>
+        <c:axId val="56338688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48043520"/>
+        <c:axId val="56337152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48045056"/>
+        <c:crossAx val="56338688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48045056"/>
+        <c:axId val="56338688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7108,7 +7108,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48043520"/>
+        <c:crossAx val="56337152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10271,24 +10271,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="49276416"/>
-        <c:axId val="49277952"/>
+        <c:axId val="106154240"/>
+        <c:axId val="106180608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49276416"/>
+        <c:axId val="106154240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49277952"/>
+        <c:crossAx val="106180608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49277952"/>
+        <c:axId val="106180608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10296,7 +10296,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49276416"/>
+        <c:crossAx val="106154240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10309,7 +10309,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10354,16 +10354,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10425,11 +10425,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="345584612635798" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="346938693287948" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="345671582069857" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="345671582069857" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10719,7 +10719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
@@ -13797,18 +13797,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GS5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="134" width="7" bestFit="1" customWidth="1"/>
-    <col min="135" max="155" width="8" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="7" bestFit="1" customWidth="1"/>
-    <col min="157" max="201" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="40" width="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7" bestFit="1" customWidth="1"/>
+    <col min="42" max="50" width="12" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8" bestFit="1" customWidth="1"/>
+    <col min="52" max="64" width="12" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10" bestFit="1" customWidth="1"/>
+    <col min="66" max="80" width="12" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="8" bestFit="1" customWidth="1"/>
+    <col min="82" max="100" width="12" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="8" bestFit="1" customWidth="1"/>
+    <col min="102" max="125" width="12" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="9" bestFit="1" customWidth="1"/>
+    <col min="127" max="128" width="12" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="11" bestFit="1" customWidth="1"/>
+    <col min="130" max="160" width="12" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="9" bestFit="1" customWidth="1"/>
+    <col min="162" max="200" width="12" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:201">
@@ -13816,604 +13843,604 @@
         <v>5</v>
       </c>
       <c r="B1">
-        <v>0.51599999999999902</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="C1">
-        <v>0.999999999999998</v>
+        <v>0.504</v>
       </c>
       <c r="D1">
-        <v>1.476</v>
+        <v>0.51733333333333298</v>
       </c>
       <c r="E1">
-        <v>2.012</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="F1">
-        <v>2.6</v>
+        <v>0.52639999999999898</v>
       </c>
       <c r="G1">
-        <v>3.1440000000000001</v>
+        <v>0.53266666666666596</v>
       </c>
       <c r="H1">
-        <v>3.6920000000000002</v>
+        <v>0.53428571428571403</v>
       </c>
       <c r="I1">
-        <v>4.21999999999999</v>
+        <v>0.53949999999999898</v>
       </c>
       <c r="J1">
-        <v>4.7439999999999998</v>
+        <v>0.54222222222222105</v>
       </c>
       <c r="K1">
-        <v>5.3559999999999901</v>
+        <v>0.54319999999999902</v>
       </c>
       <c r="L1">
-        <v>5.9719999999999898</v>
+        <v>0.55163636363636304</v>
       </c>
       <c r="M1">
-        <v>6.5640000000000001</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="N1">
-        <v>7.14</v>
+        <v>0.55692307692307697</v>
       </c>
       <c r="O1">
-        <v>7.7279999999999998</v>
+        <v>0.55885714285714205</v>
       </c>
       <c r="P1">
-        <v>8.3239999999999998</v>
+        <v>0.56506666666666605</v>
       </c>
       <c r="Q1">
-        <v>8.9479999999999897</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="R1">
-        <v>9.5679999999999996</v>
+        <v>0.57199999999999895</v>
       </c>
       <c r="S1">
-        <v>10.204000000000001</v>
+        <v>0.57422222222222197</v>
       </c>
       <c r="T1">
-        <v>10.8559999999999</v>
+        <v>0.57747368421052503</v>
       </c>
       <c r="U1">
-        <v>11.463999999999899</v>
+        <v>0.58219999999999905</v>
       </c>
       <c r="V1">
-        <v>12.048</v>
+        <v>0.58590476190476104</v>
       </c>
       <c r="W1">
-        <v>12.672000000000001</v>
+        <v>0.58836363636363498</v>
       </c>
       <c r="X1">
-        <v>13.28</v>
+        <v>0.59269565217391196</v>
       </c>
       <c r="Y1">
-        <v>13.923999999999999</v>
+        <v>0.59216666666666695</v>
       </c>
       <c r="Z1">
-        <v>14.555999999999999</v>
+        <v>0.59360000000000002</v>
       </c>
       <c r="AA1">
-        <v>15.24</v>
+        <v>0.59523076923076901</v>
       </c>
       <c r="AB1">
-        <v>15.868</v>
+        <v>0.59777777777777596</v>
       </c>
       <c r="AC1">
-        <v>16.536000000000001</v>
+        <v>0.60228571428571398</v>
       </c>
       <c r="AD1">
-        <v>17.2</v>
+        <v>0.604275862068965</v>
       </c>
       <c r="AE1">
-        <v>17.856000000000002</v>
+        <v>0.60413333333333297</v>
       </c>
       <c r="AF1">
-        <v>18.524000000000001</v>
+        <v>0.606064516129033</v>
       </c>
       <c r="AG1">
-        <v>19.256</v>
+        <v>0.60875000000000001</v>
       </c>
       <c r="AH1">
-        <v>19.968</v>
+        <v>0.611151515151514</v>
       </c>
       <c r="AI1">
-        <v>20.628</v>
+        <v>0.61317647058823499</v>
       </c>
       <c r="AJ1">
-        <v>21.38</v>
+        <v>0.61554285714285695</v>
       </c>
       <c r="AK1">
-        <v>22.079999999999899</v>
+        <v>0.61566666666666603</v>
       </c>
       <c r="AL1">
-        <v>22.835999999999999</v>
+        <v>0.61816216216216102</v>
       </c>
       <c r="AM1">
-        <v>23.576000000000001</v>
+        <v>0.61905263157894697</v>
       </c>
       <c r="AN1">
-        <v>24.303999999999998</v>
+        <v>0.621435897435896</v>
       </c>
       <c r="AO1">
-        <v>25.004000000000001</v>
+        <v>0.62339999999999895</v>
       </c>
       <c r="AP1">
-        <v>25.74</v>
+        <v>0.62643902439024401</v>
       </c>
       <c r="AQ1">
-        <v>26.452000000000002</v>
+        <v>0.628285714285714</v>
       </c>
       <c r="AR1">
-        <v>27.175999999999998</v>
+        <v>0.63069767441860503</v>
       </c>
       <c r="AS1">
-        <v>27.896000000000001</v>
+        <v>0.63236363636363602</v>
       </c>
       <c r="AT1">
-        <v>28.684000000000001</v>
+        <v>0.633066666666666</v>
       </c>
       <c r="AU1">
-        <v>29.456</v>
+        <v>0.63504347826086904</v>
       </c>
       <c r="AV1">
-        <v>30.224</v>
+        <v>0.63685106382978696</v>
       </c>
       <c r="AW1">
-        <v>30.952000000000002</v>
+        <v>0.63916666666666599</v>
       </c>
       <c r="AX1">
-        <v>31.683999999999902</v>
+        <v>0.64138775510204005</v>
       </c>
       <c r="AY1">
-        <v>32.472000000000001</v>
+        <v>0.64415999999999995</v>
       </c>
       <c r="AZ1">
-        <v>33.239999999999903</v>
+        <v>0.64556862745097998</v>
       </c>
       <c r="BA1">
-        <v>34.007999999999903</v>
+        <v>0.64792307692307705</v>
       </c>
       <c r="BB1">
-        <v>34.787999999999897</v>
+        <v>0.65033962264150902</v>
       </c>
       <c r="BC1">
-        <v>35.5399999999999</v>
+        <v>0.65207407407407303</v>
       </c>
       <c r="BD1">
-        <v>36.347999999999999</v>
+        <v>0.65359999999999996</v>
       </c>
       <c r="BE1">
-        <v>37.084000000000003</v>
+        <v>0.65478571428571397</v>
       </c>
       <c r="BF1">
-        <v>37.835999999999999</v>
+        <v>0.65663157894736701</v>
       </c>
       <c r="BG1">
-        <v>38.607999999999898</v>
+        <v>0.65841379310344805</v>
       </c>
       <c r="BH1">
-        <v>39.367999999999903</v>
+        <v>0.66006779661016901</v>
       </c>
       <c r="BI1">
-        <v>40.1159999999999</v>
+        <v>0.66213333333333302</v>
       </c>
       <c r="BJ1">
-        <v>40.884</v>
+        <v>0.66347540983606501</v>
       </c>
       <c r="BK1">
-        <v>41.68</v>
+        <v>0.66529032258064502</v>
       </c>
       <c r="BL1">
-        <v>42.443999999999903</v>
+        <v>0.66653968253968199</v>
       </c>
       <c r="BM1">
-        <v>43.223999999999897</v>
+        <v>0.66856249999999895</v>
       </c>
       <c r="BN1">
-        <v>43.972000000000001</v>
+        <v>0.670523076923076</v>
       </c>
       <c r="BO1">
-        <v>44.716000000000001</v>
+        <v>0.67187878787878696</v>
       </c>
       <c r="BP1">
-        <v>45.515999999999899</v>
+        <v>0.67301492537313301</v>
       </c>
       <c r="BQ1">
-        <v>46.32</v>
+        <v>0.67405882352941104</v>
       </c>
       <c r="BR1">
-        <v>47.131999999999898</v>
+        <v>0.675652173913043</v>
       </c>
       <c r="BS1">
-        <v>47.896000000000001</v>
+        <v>0.67674285714285598</v>
       </c>
       <c r="BT1">
-        <v>48.6679999999999</v>
+        <v>0.67774647887323902</v>
       </c>
       <c r="BU1">
-        <v>49.456000000000003</v>
+        <v>0.67916666666666603</v>
       </c>
       <c r="BV1">
-        <v>50.228000000000002</v>
+        <v>0.68043835616438397</v>
       </c>
       <c r="BW1">
-        <v>50.975999999999999</v>
+        <v>0.68221621621621498</v>
       </c>
       <c r="BX1">
-        <v>51.792000000000002</v>
+        <v>0.68373333333333297</v>
       </c>
       <c r="BY1">
-        <v>52.567999999999998</v>
+        <v>0.68505263157894702</v>
       </c>
       <c r="BZ1">
-        <v>53.351999999999897</v>
+        <v>0.68628571428571405</v>
       </c>
       <c r="CA1">
-        <v>54.143999999999998</v>
+        <v>0.68748717948717897</v>
       </c>
       <c r="CB1">
-        <v>54.927999999999997</v>
+        <v>0.68850632911392295</v>
       </c>
       <c r="CC1">
-        <v>55.723999999999997</v>
+        <v>0.68944999999999901</v>
       </c>
       <c r="CD1">
-        <v>56.483999999999902</v>
+        <v>0.68997530864197498</v>
       </c>
       <c r="CE1">
-        <v>57.231999999999999</v>
+        <v>0.69082926829268299</v>
       </c>
       <c r="CF1">
-        <v>58.08</v>
+        <v>0.69185542168674696</v>
       </c>
       <c r="CG1">
-        <v>58.892000000000003</v>
+        <v>0.69271428571428595</v>
       </c>
       <c r="CH1">
-        <v>59.707999999999998</v>
+        <v>0.69364705882352895</v>
       </c>
       <c r="CI1">
-        <v>60.52</v>
+        <v>0.69506976744186</v>
       </c>
       <c r="CJ1">
-        <v>61.308</v>
+        <v>0.69581609195402305</v>
       </c>
       <c r="CK1">
-        <v>62.143999999999998</v>
+        <v>0.69663636363636305</v>
       </c>
       <c r="CL1">
-        <v>62.932000000000002</v>
+        <v>0.69766292134831398</v>
       </c>
       <c r="CM1">
-        <v>63.716000000000001</v>
+        <v>0.69857777777777796</v>
       </c>
       <c r="CN1">
-        <v>64.524000000000001</v>
+        <v>0.69956043956043901</v>
       </c>
       <c r="CO1">
-        <v>65.291999999999902</v>
+        <v>0.700478260869564</v>
       </c>
       <c r="CP1">
-        <v>66.12</v>
+        <v>0.70086021505376295</v>
       </c>
       <c r="CQ1">
-        <v>66.968000000000004</v>
+        <v>0.702042553191489</v>
       </c>
       <c r="CR1">
-        <v>67.772000000000006</v>
+        <v>0.703452631578947</v>
       </c>
       <c r="CS1">
-        <v>68.591999999999899</v>
+        <v>0.70470833333333305</v>
       </c>
       <c r="CT1">
-        <v>69.400000000000006</v>
+        <v>0.70585567010309203</v>
       </c>
       <c r="CU1">
-        <v>70.215999999999994</v>
+        <v>0.70677551020408202</v>
       </c>
       <c r="CV1">
-        <v>71.075999999999993</v>
+        <v>0.70751515151514999</v>
       </c>
       <c r="CW1">
-        <v>71.887999999999906</v>
+        <v>0.708479999999999</v>
       </c>
       <c r="CX1">
-        <v>72.715999999999994</v>
+        <v>0.70946534653465299</v>
       </c>
       <c r="CY1">
-        <v>73.531999999999996</v>
+        <v>0.71027450980392104</v>
       </c>
       <c r="CZ1">
-        <v>74.352000000000004</v>
+        <v>0.71118446601941698</v>
       </c>
       <c r="DA1">
-        <v>75.191999999999993</v>
+        <v>0.71199999999999897</v>
       </c>
       <c r="DB1">
-        <v>76.024000000000001</v>
+        <v>0.712380952380952</v>
       </c>
       <c r="DC1">
-        <v>76.852000000000004</v>
+        <v>0.71305660377358404</v>
       </c>
       <c r="DD1">
-        <v>77.66</v>
+        <v>0.71386915887850499</v>
       </c>
       <c r="DE1">
-        <v>78.48</v>
+        <v>0.71462962962962895</v>
       </c>
       <c r="DF1">
-        <v>79.291999999999902</v>
+        <v>0.71555963302752301</v>
       </c>
       <c r="DG1">
-        <v>80.116</v>
+        <v>0.71698181818181805</v>
       </c>
       <c r="DH1">
-        <v>80.923999999999893</v>
+        <v>0.71754954954954897</v>
       </c>
       <c r="DI1">
-        <v>81.739999999999895</v>
+        <v>0.71850000000000003</v>
       </c>
       <c r="DJ1">
-        <v>82.58</v>
+        <v>0.71932743362831797</v>
       </c>
       <c r="DK1">
-        <v>83.383999999999901</v>
+        <v>0.71978947368420998</v>
       </c>
       <c r="DL1">
-        <v>84.224000000000004</v>
+        <v>0.72107826086956395</v>
       </c>
       <c r="DM1">
-        <v>85.031999999999996</v>
+        <v>0.72182758620689602</v>
       </c>
       <c r="DN1">
-        <v>85.867999999999896</v>
+        <v>0.72273504273504197</v>
       </c>
       <c r="DO1">
-        <v>86.727999999999994</v>
+        <v>0.72345762711864303</v>
       </c>
       <c r="DP1">
-        <v>87.584000000000003</v>
+        <v>0.72436974789915898</v>
       </c>
       <c r="DQ1">
-        <v>88.384</v>
+        <v>0.72536666666666605</v>
       </c>
       <c r="DR1">
-        <v>89.215999999999994</v>
+        <v>0.72618181818181804</v>
       </c>
       <c r="DS1">
-        <v>89.999999999999901</v>
+        <v>0.72678688524590096</v>
       </c>
       <c r="DT1">
-        <v>90.827999999999903</v>
+        <v>0.72777235772357696</v>
       </c>
       <c r="DU1">
-        <v>91.644000000000005</v>
+        <v>0.72832258064516098</v>
       </c>
       <c r="DV1">
-        <v>92.516000000000005</v>
+        <v>0.72921599999999998</v>
       </c>
       <c r="DW1">
-        <v>93.36</v>
+        <v>0.72955555555555496</v>
       </c>
       <c r="DX1">
-        <v>94.176000000000002</v>
+        <v>0.730456692913386</v>
       </c>
       <c r="DY1">
-        <v>94.983999999999995</v>
+        <v>0.73087500000000005</v>
       </c>
       <c r="DZ1">
-        <v>95.804000000000002</v>
+        <v>0.73162790697674396</v>
       </c>
       <c r="EA1">
-        <v>96.632000000000005</v>
+        <v>0.732430769230768</v>
       </c>
       <c r="EB1">
-        <v>97.444000000000003</v>
+        <v>0.73312977099236598</v>
       </c>
       <c r="EC1">
-        <v>98.328000000000003</v>
+        <v>0.73381818181818104</v>
       </c>
       <c r="ED1">
-        <v>99.179999999999893</v>
+        <v>0.73473684210526402</v>
       </c>
       <c r="EE1">
-        <v>100.012</v>
+        <v>0.73555223880596998</v>
       </c>
       <c r="EF1">
-        <v>100.843999999999</v>
+        <v>0.73602962962962903</v>
       </c>
       <c r="EG1">
-        <v>101.684</v>
+        <v>0.73632352941176404</v>
       </c>
       <c r="EH1">
-        <v>102.468</v>
+        <v>0.73710948905109397</v>
       </c>
       <c r="EI1">
-        <v>103.33199999999999</v>
+        <v>0.73782608695652196</v>
       </c>
       <c r="EJ1">
-        <v>104.152</v>
+        <v>0.738273381294964</v>
       </c>
       <c r="EK1">
-        <v>104.988</v>
+        <v>0.73891428571428497</v>
       </c>
       <c r="EL1">
-        <v>105.82799999999899</v>
+        <v>0.73971631205673705</v>
       </c>
       <c r="EM1">
-        <v>106.68</v>
+        <v>0.74053521126760502</v>
       </c>
       <c r="EN1">
-        <v>107.496</v>
+        <v>0.74125874125874103</v>
       </c>
       <c r="EO1">
-        <v>108.336</v>
+        <v>0.74177777777777798</v>
       </c>
       <c r="EP1">
-        <v>109.18</v>
+        <v>0.74234482758620601</v>
       </c>
       <c r="EQ1">
-        <v>110.036</v>
+        <v>0.74290410958904096</v>
       </c>
       <c r="ER1">
-        <v>110.884</v>
+        <v>0.743700680272109</v>
       </c>
       <c r="ES1">
-        <v>111.735999999999</v>
+        <v>0.74418918918918797</v>
       </c>
       <c r="ET1">
-        <v>112.62</v>
+        <v>0.74453691275167799</v>
       </c>
       <c r="EU1">
-        <v>113.452</v>
+        <v>0.74482666666666697</v>
       </c>
       <c r="EV1">
-        <v>114.30800000000001</v>
+        <v>0.74561589403973705</v>
       </c>
       <c r="EW1">
-        <v>115.124</v>
+        <v>0.74605263157894697</v>
       </c>
       <c r="EX1">
-        <v>115.94799999999999</v>
+        <v>0.74661437908496697</v>
       </c>
       <c r="EY1">
-        <v>116.8</v>
+        <v>0.74711688311688196</v>
       </c>
       <c r="EZ1">
-        <v>117.66</v>
+        <v>0.74774193548387002</v>
       </c>
       <c r="FA1">
-        <v>118.512</v>
+        <v>0.74812820512820399</v>
       </c>
       <c r="FB1">
-        <v>119.352</v>
+        <v>0.74889171974522195</v>
       </c>
       <c r="FC1">
-        <v>120.24</v>
+        <v>0.749746835443037</v>
       </c>
       <c r="FD1">
-        <v>121.06399999999999</v>
+        <v>0.75028930817609996</v>
       </c>
       <c r="FE1">
-        <v>121.92400000000001</v>
+        <v>0.75074999999999903</v>
       </c>
       <c r="FF1">
-        <v>122.77200000000001</v>
+        <v>0.75145341614906702</v>
       </c>
       <c r="FG1">
-        <v>123.65600000000001</v>
+        <v>0.75197530864197504</v>
       </c>
       <c r="FH1">
-        <v>124.476</v>
+        <v>0.752343558282208</v>
       </c>
       <c r="FI1">
-        <v>125.316</v>
+        <v>0.75270731707317096</v>
       </c>
       <c r="FJ1">
-        <v>126.20399999999999</v>
+        <v>0.753284848484848</v>
       </c>
       <c r="FK1">
-        <v>127.072</v>
+        <v>0.75361445783132497</v>
       </c>
       <c r="FL1">
-        <v>127.932</v>
+        <v>0.75403592814371301</v>
       </c>
       <c r="FM1">
-        <v>128.783999999999</v>
+        <v>0.75452380952381004</v>
       </c>
       <c r="FN1">
-        <v>129.611999999999</v>
+        <v>0.75488757396449602</v>
       </c>
       <c r="FO1">
-        <v>130.45599999999899</v>
+        <v>0.75524705882352805</v>
       </c>
       <c r="FP1">
-        <v>131.316</v>
+        <v>0.75576608187134198</v>
       </c>
       <c r="FQ1">
-        <v>132.16</v>
+        <v>0.75625581395348795</v>
       </c>
       <c r="FR1">
-        <v>132.99999999999901</v>
+        <v>0.75669364161849695</v>
       </c>
       <c r="FS1">
-        <v>133.88399999999899</v>
+        <v>0.75712643678160896</v>
       </c>
       <c r="FT1">
-        <v>134.78</v>
+        <v>0.75757714285714295</v>
       </c>
       <c r="FU1">
-        <v>135.60799999999901</v>
+        <v>0.75811363636363605</v>
       </c>
       <c r="FV1">
-        <v>136.45599999999999</v>
+        <v>0.75871186440677896</v>
       </c>
       <c r="FW1">
-        <v>137.30399999999901</v>
+        <v>0.75912359550561803</v>
       </c>
       <c r="FX1">
-        <v>138.15199999999899</v>
+        <v>0.75957541899441305</v>
       </c>
       <c r="FY1">
-        <v>138.97200000000001</v>
+        <v>0.759777777777778</v>
       </c>
       <c r="FZ1">
-        <v>139.83199999999999</v>
+        <v>0.76037569060773402</v>
       </c>
       <c r="GA1">
-        <v>140.69199999999901</v>
+        <v>0.76092307692307604</v>
       </c>
       <c r="GB1">
-        <v>141.57599999999999</v>
+        <v>0.76126775956284198</v>
       </c>
       <c r="GC1">
-        <v>142.45599999999999</v>
+        <v>0.76171739130434701</v>
       </c>
       <c r="GD1">
-        <v>143.36399999999901</v>
+        <v>0.76201081081081001</v>
       </c>
       <c r="GE1">
-        <v>144.21199999999899</v>
+        <v>0.76255913978494605</v>
       </c>
       <c r="GF1">
-        <v>145.012</v>
+        <v>0.76286631016042705</v>
       </c>
       <c r="GG1">
-        <v>145.86000000000001</v>
+        <v>0.76312765957446904</v>
       </c>
       <c r="GH1">
-        <v>146.696</v>
+        <v>0.76351322751322703</v>
       </c>
       <c r="GI1">
-        <v>147.58399999999901</v>
+        <v>0.76397894736842098</v>
       </c>
       <c r="GJ1">
-        <v>148.476</v>
+        <v>0.76418848167539299</v>
       </c>
       <c r="GK1">
-        <v>149.33199999999999</v>
+        <v>0.76470833333333299</v>
       </c>
       <c r="GL1">
-        <v>150.17599999999999</v>
+        <v>0.76528497409326501</v>
       </c>
       <c r="GM1">
-        <v>150.988</v>
+        <v>0.76548453608247402</v>
       </c>
       <c r="GN1">
-        <v>151.83199999999999</v>
+        <v>0.76586666666666503</v>
       </c>
       <c r="GO1">
-        <v>152.70400000000001</v>
+        <v>0.76624489795918405</v>
       </c>
       <c r="GP1">
-        <v>153.53599999999901</v>
+        <v>0.76661928934010204</v>
       </c>
       <c r="GQ1">
-        <v>154.38800000000001</v>
+        <v>0.76705050505050398</v>
       </c>
       <c r="GR1">
-        <v>155.24</v>
+        <v>0.76753768844221004</v>
       </c>
       <c r="GS1">
-        <v>156.084</v>
+        <v>0.76803999999999994</v>
       </c>
     </row>
     <row r="2" spans="1:201">
@@ -14421,604 +14448,604 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.48399999999999999</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="C2">
-        <v>0.99199999999999999</v>
+        <v>0.501999999999999</v>
       </c>
       <c r="D2">
-        <v>1.5680000000000001</v>
+        <v>0.50533333333333297</v>
       </c>
       <c r="E2">
-        <v>2.0720000000000001</v>
+        <v>0.503999999999999</v>
       </c>
       <c r="F2">
-        <v>2.6320000000000001</v>
+        <v>0.51439999999999897</v>
       </c>
       <c r="G2">
-        <v>3.2080000000000002</v>
+        <v>0.52466666666666595</v>
       </c>
       <c r="H2">
-        <v>3.7959999999999998</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="I2">
-        <v>4.3799999999999901</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="J2">
-        <v>4.9720000000000004</v>
+        <v>0.54711111111111099</v>
       </c>
       <c r="K2">
-        <v>5.6</v>
+        <v>0.55599999999999905</v>
       </c>
       <c r="L2">
-        <v>6.2480000000000002</v>
+        <v>0.56545454545454499</v>
       </c>
       <c r="M2">
-        <v>6.8680000000000003</v>
+        <v>0.57733333333333303</v>
       </c>
       <c r="N2">
-        <v>7.48</v>
+        <v>0.57969230769230695</v>
       </c>
       <c r="O2">
-        <v>8.1920000000000002</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="P2">
-        <v>8.8480000000000008</v>
+        <v>0.59199999999999897</v>
       </c>
       <c r="Q2">
-        <v>9.5279999999999898</v>
+        <v>0.59724999999999995</v>
       </c>
       <c r="R2">
-        <v>10.215999999999999</v>
+        <v>0.60258823529411698</v>
       </c>
       <c r="S2">
-        <v>10.932</v>
+        <v>0.60466666666666702</v>
       </c>
       <c r="T2">
-        <v>11.632</v>
+        <v>0.60694736842105101</v>
       </c>
       <c r="U2">
-        <v>12.2919999999999</v>
+        <v>0.60840000000000005</v>
       </c>
       <c r="V2">
-        <v>12.968</v>
+        <v>0.61257142857142799</v>
       </c>
       <c r="W2">
-        <v>13.696</v>
+        <v>0.616363636363636</v>
       </c>
       <c r="X2">
-        <v>14.42</v>
+        <v>0.61721739130434705</v>
       </c>
       <c r="Y2">
-        <v>15.128</v>
+        <v>0.62049999999999905</v>
       </c>
       <c r="Z2">
-        <v>15.8079999999999</v>
+        <v>0.62447999999999904</v>
       </c>
       <c r="AA2">
-        <v>16.495999999999999</v>
+        <v>0.62753846153846105</v>
       </c>
       <c r="AB2">
-        <v>17.216000000000001</v>
+        <v>0.63007407407407301</v>
       </c>
       <c r="AC2">
-        <v>17.956</v>
+        <v>0.63171428571428501</v>
       </c>
       <c r="AD2">
-        <v>18.671999999999901</v>
+        <v>0.63475862068965505</v>
       </c>
       <c r="AE2">
-        <v>19.38</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="AF2">
-        <v>20.052</v>
+        <v>0.64012903225806495</v>
       </c>
       <c r="AG2">
-        <v>20.78</v>
+        <v>0.64312499999999995</v>
       </c>
       <c r="AH2">
-        <v>21.532</v>
+        <v>0.64545454545454295</v>
       </c>
       <c r="AI2">
-        <v>22.28</v>
+        <v>0.64929411764705902</v>
       </c>
       <c r="AJ2">
-        <v>23.015999999999899</v>
+        <v>0.65108571428571305</v>
       </c>
       <c r="AK2">
-        <v>23.72</v>
+        <v>0.65311111111111098</v>
       </c>
       <c r="AL2">
-        <v>24.428000000000001</v>
+        <v>0.65481081081081105</v>
       </c>
       <c r="AM2">
-        <v>25.159999999999901</v>
+        <v>0.65715789473684205</v>
       </c>
       <c r="AN2">
-        <v>25.931999999999999</v>
+        <v>0.65866666666666596</v>
       </c>
       <c r="AO2">
-        <v>26.64</v>
+        <v>0.66149999999999998</v>
       </c>
       <c r="AP2">
-        <v>27.367999999999999</v>
+        <v>0.66351219512195103</v>
       </c>
       <c r="AQ2">
-        <v>28.128</v>
+        <v>0.665904761904761</v>
       </c>
       <c r="AR2">
-        <v>28.876000000000001</v>
+        <v>0.66846511627906902</v>
       </c>
       <c r="AS2">
-        <v>29.564</v>
+        <v>0.67045454545454497</v>
       </c>
       <c r="AT2">
-        <v>30.32</v>
+        <v>0.67199999999999904</v>
       </c>
       <c r="AU2">
-        <v>31.064</v>
+        <v>0.67434782608695498</v>
       </c>
       <c r="AV2">
-        <v>31.824000000000002</v>
+        <v>0.67489361702127704</v>
       </c>
       <c r="AW2">
-        <v>32.519999999999897</v>
+        <v>0.67683333333333195</v>
       </c>
       <c r="AX2">
-        <v>33.207999999999899</v>
+        <v>0.67844897959183703</v>
       </c>
       <c r="AY2">
-        <v>33.96</v>
+        <v>0.67967999999999995</v>
       </c>
       <c r="AZ2">
-        <v>34.707999999999998</v>
+        <v>0.68094117647058705</v>
       </c>
       <c r="BA2">
-        <v>35.471999999999902</v>
+        <v>0.68223076923076897</v>
       </c>
       <c r="BB2">
-        <v>36.215999999999902</v>
+        <v>0.68422641509433901</v>
       </c>
       <c r="BC2">
-        <v>36.96</v>
+        <v>0.68570370370370304</v>
       </c>
       <c r="BD2">
-        <v>37.74</v>
+        <v>0.68720000000000003</v>
       </c>
       <c r="BE2">
-        <v>38.468000000000004</v>
+        <v>0.688928571428571</v>
       </c>
       <c r="BF2">
-        <v>39.207999999999998</v>
+        <v>0.69038596491227899</v>
       </c>
       <c r="BG2">
-        <v>39.947999999999901</v>
+        <v>0.69137931034482702</v>
       </c>
       <c r="BH2">
-        <v>40.735999999999997</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="BI2">
-        <v>41.48</v>
+        <v>0.69313333333333305</v>
       </c>
       <c r="BJ2">
-        <v>42.195999999999998</v>
+        <v>0.69455737704917997</v>
       </c>
       <c r="BK2">
-        <v>42.963999999999999</v>
+        <v>0.69522580645161303</v>
       </c>
       <c r="BL2">
-        <v>43.7</v>
+        <v>0.69650793650793597</v>
       </c>
       <c r="BM2">
-        <v>44.415999999999897</v>
+        <v>0.6973125</v>
       </c>
       <c r="BN2">
-        <v>45.176000000000002</v>
+        <v>0.697476923076922</v>
       </c>
       <c r="BO2">
-        <v>45.94</v>
+        <v>0.69854545454545403</v>
       </c>
       <c r="BP2">
-        <v>46.731999999999999</v>
+        <v>0.69982089552238702</v>
       </c>
       <c r="BQ2">
-        <v>47.536000000000001</v>
+        <v>0.70041176470588196</v>
       </c>
       <c r="BR2">
-        <v>48.2959999999999</v>
+        <v>0.70115942028985501</v>
       </c>
       <c r="BS2">
-        <v>49.011999999999901</v>
+        <v>0.702171428571428</v>
       </c>
       <c r="BT2">
-        <v>49.764000000000003</v>
+        <v>0.70349295774647802</v>
       </c>
       <c r="BU2">
-        <v>50.543999999999997</v>
+        <v>0.704666666666666</v>
       </c>
       <c r="BV2">
-        <v>51.316000000000003</v>
+        <v>0.70575342465753499</v>
       </c>
       <c r="BW2">
-        <v>52.091999999999999</v>
+        <v>0.70681081081080999</v>
       </c>
       <c r="BX2">
-        <v>52.851999999999997</v>
+        <v>0.70773333333333199</v>
       </c>
       <c r="BY2">
-        <v>53.664000000000001</v>
+        <v>0.70794736842105199</v>
       </c>
       <c r="BZ2">
-        <v>54.444000000000003</v>
+        <v>0.70841558441558405</v>
       </c>
       <c r="CA2">
-        <v>55.204000000000001</v>
+        <v>0.70887179487179497</v>
       </c>
       <c r="CB2">
-        <v>55.972000000000001</v>
+        <v>0.70987341772151902</v>
       </c>
       <c r="CC2">
-        <v>56.78</v>
+        <v>0.71104999999999996</v>
       </c>
       <c r="CD2">
-        <v>57.548000000000002</v>
+        <v>0.71195061728395104</v>
       </c>
       <c r="CE2">
-        <v>58.316000000000003</v>
+        <v>0.71263414634146305</v>
       </c>
       <c r="CF2">
-        <v>59.084000000000003</v>
+        <v>0.71392771084337303</v>
       </c>
       <c r="CG2">
-        <v>59.86</v>
+        <v>0.71457142857142797</v>
       </c>
       <c r="CH2">
-        <v>60.664000000000001</v>
+        <v>0.71501176470588101</v>
       </c>
       <c r="CI2">
-        <v>61.451999999999998</v>
+        <v>0.71586046511627799</v>
       </c>
       <c r="CJ2">
-        <v>62.228000000000002</v>
+        <v>0.71682758620689602</v>
       </c>
       <c r="CK2">
-        <v>62.968000000000004</v>
+        <v>0.71804545454545399</v>
       </c>
       <c r="CL2">
-        <v>63.752000000000002</v>
+        <v>0.71883146067415604</v>
       </c>
       <c r="CM2">
-        <v>64.531999999999996</v>
+        <v>0.71951111111110999</v>
       </c>
       <c r="CN2">
-        <v>65.323999999999998</v>
+        <v>0.71956043956043902</v>
       </c>
       <c r="CO2">
-        <v>66.091999999999899</v>
+        <v>0.71969565217391296</v>
       </c>
       <c r="CP2">
-        <v>66.852000000000004</v>
+        <v>0.72008602150537504</v>
       </c>
       <c r="CQ2">
-        <v>67.627999999999901</v>
+        <v>0.72097872340425495</v>
       </c>
       <c r="CR2">
-        <v>68.455999999999904</v>
+        <v>0.72138947368421003</v>
       </c>
       <c r="CS2">
-        <v>69.212000000000003</v>
+        <v>0.72179166666666705</v>
       </c>
       <c r="CT2">
-        <v>69.9879999999999</v>
+        <v>0.72235051546391704</v>
       </c>
       <c r="CU2">
-        <v>70.787999999999997</v>
+        <v>0.72371428571428498</v>
       </c>
       <c r="CV2">
-        <v>71.575999999999993</v>
+        <v>0.72432323232322904</v>
       </c>
       <c r="CW2">
-        <v>72.367999999999896</v>
+        <v>0.72452000000000005</v>
       </c>
       <c r="CX2">
-        <v>73.139999999999901</v>
+        <v>0.72522772277227598</v>
       </c>
       <c r="CY2">
-        <v>73.915999999999997</v>
+        <v>0.72552941176470498</v>
       </c>
       <c r="CZ2">
-        <v>74.664000000000001</v>
+        <v>0.72636893203883401</v>
       </c>
       <c r="DA2">
-        <v>75.439999999999898</v>
+        <v>0.72719230769230703</v>
       </c>
       <c r="DB2">
-        <v>76.203999999999994</v>
+        <v>0.72773333333333201</v>
       </c>
       <c r="DC2">
-        <v>77.003999999999905</v>
+        <v>0.72845283018867901</v>
       </c>
       <c r="DD2">
-        <v>77.804000000000002</v>
+        <v>0.728934579439252</v>
       </c>
       <c r="DE2">
-        <v>78.584000000000003</v>
+        <v>0.72933333333333294</v>
       </c>
       <c r="DF2">
-        <v>79.396000000000001</v>
+        <v>0.729504587155963</v>
       </c>
       <c r="DG2">
-        <v>80.171999999999997</v>
+        <v>0.73010909090909004</v>
       </c>
       <c r="DH2">
-        <v>80.895999999999901</v>
+        <v>0.73012612612612504</v>
       </c>
       <c r="DI2">
-        <v>81.668000000000006</v>
+        <v>0.73039285714285695</v>
       </c>
       <c r="DJ2">
-        <v>82.4879999999999</v>
+        <v>0.73076106194690205</v>
       </c>
       <c r="DK2">
-        <v>83.263999999999996</v>
+        <v>0.73105263157894695</v>
       </c>
       <c r="DL2">
-        <v>83.999999999999901</v>
+        <v>0.73203478260869503</v>
       </c>
       <c r="DM2">
-        <v>84.771999999999906</v>
+        <v>0.73265517241379297</v>
       </c>
       <c r="DN2">
-        <v>85.52</v>
+        <v>0.73282051282051197</v>
       </c>
       <c r="DO2">
-        <v>86.296000000000006</v>
+        <v>0.73345762711864304</v>
       </c>
       <c r="DP2">
-        <v>87.08</v>
+        <v>0.73374789915966299</v>
       </c>
       <c r="DQ2">
-        <v>87.851999999999904</v>
+        <v>0.73419999999999996</v>
       </c>
       <c r="DR2">
-        <v>88.651999999999902</v>
+        <v>0.73438016528925598</v>
       </c>
       <c r="DS2">
-        <v>89.495999999999995</v>
+        <v>0.73472131147540898</v>
       </c>
       <c r="DT2">
-        <v>90.251999999999995</v>
+        <v>0.73469918699186898</v>
       </c>
       <c r="DU2">
-        <v>90.995999999999995</v>
+        <v>0.73483870967741804</v>
       </c>
       <c r="DV2">
-        <v>91.763999999999996</v>
+        <v>0.73516800000000004</v>
       </c>
       <c r="DW2">
-        <v>92.531999999999996</v>
+        <v>0.73571428571428499</v>
       </c>
       <c r="DX2">
-        <v>93.343999999999994</v>
+        <v>0.73606299212598303</v>
       </c>
       <c r="DY2">
-        <v>94.1159999999999</v>
+        <v>0.73646875000000001</v>
       </c>
       <c r="DZ2">
-        <v>94.923999999999893</v>
+        <v>0.73624806201550397</v>
       </c>
       <c r="EA2">
-        <v>95.659999999999897</v>
+        <v>0.73689230769230796</v>
       </c>
       <c r="EB2">
-        <v>96.396000000000001</v>
+        <v>0.73728244274809096</v>
       </c>
       <c r="EC2">
-        <v>97.195999999999898</v>
+        <v>0.73766666666666603</v>
       </c>
       <c r="ED2">
-        <v>97.988</v>
+        <v>0.73798496240601397</v>
       </c>
       <c r="EE2">
-        <v>98.759999999999906</v>
+        <v>0.73797014925372995</v>
       </c>
       <c r="EF2">
-        <v>99.54</v>
+        <v>0.73825185185185105</v>
       </c>
       <c r="EG2">
-        <v>100.359999999999</v>
+        <v>0.73858823529411699</v>
       </c>
       <c r="EH2">
-        <v>101.11199999999999</v>
+        <v>0.73906569343065598</v>
       </c>
       <c r="EI2">
-        <v>101.84399999999999</v>
+        <v>0.73956521739130299</v>
       </c>
       <c r="EJ2">
-        <v>102.636</v>
+        <v>0.73994244604316495</v>
       </c>
       <c r="EK2">
-        <v>103.38800000000001</v>
+        <v>0.74011428571428495</v>
       </c>
       <c r="EL2">
-        <v>104.188</v>
+        <v>0.74022695035460995</v>
       </c>
       <c r="EM2">
-        <v>104.928</v>
+        <v>0.74045070422535197</v>
       </c>
       <c r="EN2">
-        <v>105.69199999999999</v>
+        <v>0.740447552447553</v>
       </c>
       <c r="EO2">
-        <v>106.42400000000001</v>
+        <v>0.74077777777777698</v>
       </c>
       <c r="EP2">
-        <v>107.176</v>
+        <v>0.74140689655172398</v>
       </c>
       <c r="EQ2">
-        <v>107.952</v>
+        <v>0.74189041095890396</v>
       </c>
       <c r="ER2">
-        <v>108.72399999999899</v>
+        <v>0.74236734693877504</v>
       </c>
       <c r="ES2">
-        <v>109.508</v>
+        <v>0.74240540540540501</v>
       </c>
       <c r="ET2">
-        <v>110.29600000000001</v>
+        <v>0.74303355704697904</v>
       </c>
       <c r="EU2">
-        <v>110.988</v>
+        <v>0.74354666666666602</v>
       </c>
       <c r="EV2">
-        <v>111.812</v>
+        <v>0.74376158940397596</v>
       </c>
       <c r="EW2">
-        <v>112.608</v>
+        <v>0.74392105263157804</v>
       </c>
       <c r="EX2">
-        <v>113.32</v>
+        <v>0.743999999999998</v>
       </c>
       <c r="EY2">
-        <v>114.07599999999999</v>
+        <v>0.74410389610389505</v>
       </c>
       <c r="EZ2">
-        <v>114.82</v>
+        <v>0.74428387096774196</v>
       </c>
       <c r="FA2">
-        <v>115.62</v>
+        <v>0.74492307692307602</v>
       </c>
       <c r="FB2">
-        <v>116.432</v>
+        <v>0.74512101910827899</v>
       </c>
       <c r="FC2">
-        <v>117.236</v>
+        <v>0.74531645569620197</v>
       </c>
       <c r="FD2">
-        <v>118.06</v>
+        <v>0.74553459119496701</v>
       </c>
       <c r="FE2">
-        <v>118.83199999999999</v>
+        <v>0.74602499999999905</v>
       </c>
       <c r="FF2">
-        <v>119.58799999999999</v>
+        <v>0.746285714285714</v>
       </c>
       <c r="FG2">
-        <v>120.312</v>
+        <v>0.74637037037037002</v>
       </c>
       <c r="FH2">
-        <v>121.13200000000001</v>
+        <v>0.746576687116564</v>
       </c>
       <c r="FI2">
-        <v>121.892</v>
+        <v>0.74670731707316995</v>
       </c>
       <c r="FJ2">
-        <v>122.68</v>
+        <v>0.74669090909090696</v>
       </c>
       <c r="FK2">
-        <v>123.492</v>
+        <v>0.74674698795180705</v>
       </c>
       <c r="FL2">
-        <v>124.252</v>
+        <v>0.746898203592814</v>
       </c>
       <c r="FM2">
-        <v>125.07599999999999</v>
+        <v>0.74673809523809398</v>
       </c>
       <c r="FN2">
-        <v>125.88800000000001</v>
+        <v>0.74660355029585701</v>
       </c>
       <c r="FO2">
-        <v>126.68</v>
+        <v>0.74661176470588098</v>
       </c>
       <c r="FP2">
-        <v>127.42400000000001</v>
+        <v>0.74685380116958699</v>
       </c>
       <c r="FQ2">
-        <v>128.183999999999</v>
+        <v>0.74693023255813895</v>
       </c>
       <c r="FR2">
-        <v>128.951999999999</v>
+        <v>0.74707514450866996</v>
       </c>
       <c r="FS2">
-        <v>129.75599999999901</v>
+        <v>0.74712643678160795</v>
       </c>
       <c r="FT2">
-        <v>130.54799999999901</v>
+        <v>0.74731428571428504</v>
       </c>
       <c r="FU2">
-        <v>131.36799999999999</v>
+        <v>0.74731818181818099</v>
       </c>
       <c r="FV2">
-        <v>132.172</v>
+        <v>0.74748022598870001</v>
       </c>
       <c r="FW2">
-        <v>132.97999999999999</v>
+        <v>0.74795505617977498</v>
       </c>
       <c r="FX2">
-        <v>133.74399999999901</v>
+        <v>0.74835754189944104</v>
       </c>
       <c r="FY2">
-        <v>134.53200000000001</v>
+        <v>0.74855555555555597</v>
       </c>
       <c r="FZ2">
-        <v>135.31599999999901</v>
+        <v>0.74855248618784498</v>
       </c>
       <c r="GA2">
-        <v>136.12</v>
+        <v>0.74868131868131804</v>
       </c>
       <c r="GB2">
-        <v>136.891999999999</v>
+        <v>0.74891803278688496</v>
       </c>
       <c r="GC2">
-        <v>137.72</v>
+        <v>0.74932608695652103</v>
       </c>
       <c r="GD2">
-        <v>138.49599999999899</v>
+        <v>0.74925405405405299</v>
       </c>
       <c r="GE2">
-        <v>139.259999999999</v>
+        <v>0.749569892473118</v>
       </c>
       <c r="GF2">
-        <v>140.084</v>
+        <v>0.74973262032085597</v>
       </c>
       <c r="GG2">
-        <v>140.84</v>
+        <v>0.74987234042553097</v>
       </c>
       <c r="GH2">
-        <v>141.636</v>
+        <v>0.75011640211640096</v>
       </c>
       <c r="GI2">
-        <v>142.45599999999899</v>
+        <v>0.75042105263157899</v>
       </c>
       <c r="GJ2">
-        <v>143.231999999999</v>
+        <v>0.75059685863874304</v>
       </c>
       <c r="GK2">
-        <v>144.015999999999</v>
+        <v>0.75056250000000002</v>
       </c>
       <c r="GL2">
-        <v>144.80399999999901</v>
+        <v>0.75065284974093205</v>
       </c>
       <c r="GM2">
-        <v>145.54400000000001</v>
+        <v>0.75080412371133998</v>
       </c>
       <c r="GN2">
-        <v>146.316</v>
+        <v>0.75097435897435805</v>
       </c>
       <c r="GO2">
-        <v>147.11600000000001</v>
+        <v>0.75120408163265195</v>
       </c>
       <c r="GP2">
-        <v>147.9</v>
+        <v>0.75143147208121797</v>
       </c>
       <c r="GQ2">
-        <v>148.708</v>
+        <v>0.75163636363636299</v>
       </c>
       <c r="GR2">
-        <v>149.51599999999999</v>
+        <v>0.75181909547738601</v>
       </c>
       <c r="GS2">
-        <v>150.33600000000001</v>
+        <v>0.75183999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:201">
@@ -15026,604 +15053,604 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.47599999999999898</v>
+        <v>0.47199999999999898</v>
       </c>
       <c r="C3">
-        <v>1.012</v>
+        <v>0.496</v>
       </c>
       <c r="D3">
-        <v>1.5720000000000001</v>
+        <v>0.50133333333333396</v>
       </c>
       <c r="E3">
-        <v>2.1240000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="F3">
-        <v>2.6640000000000001</v>
+        <v>0.53519999999999901</v>
       </c>
       <c r="G3">
-        <v>3.2160000000000002</v>
+        <v>0.53266666666666596</v>
       </c>
       <c r="H3">
-        <v>3.8239999999999998</v>
+        <v>0.53657142857142903</v>
       </c>
       <c r="I3">
-        <v>4.4439999999999902</v>
+        <v>0.53449999999999998</v>
       </c>
       <c r="J3">
-        <v>5.0599999999999898</v>
+        <v>0.54622222222222205</v>
       </c>
       <c r="K3">
-        <v>5.6079999999999997</v>
+        <v>0.55159999999999898</v>
       </c>
       <c r="L3">
-        <v>6.1840000000000002</v>
+        <v>0.55236363636363595</v>
       </c>
       <c r="M3">
-        <v>6.7880000000000003</v>
+        <v>0.55833333333333302</v>
       </c>
       <c r="N3">
-        <v>7.4480000000000004</v>
+        <v>0.56338461538461504</v>
       </c>
       <c r="O3">
-        <v>8.0760000000000005</v>
+        <v>0.56742857142857095</v>
       </c>
       <c r="P3">
-        <v>8.7479999999999905</v>
+        <v>0.56906666666666605</v>
       </c>
       <c r="Q3">
-        <v>9.4439999999999902</v>
+        <v>0.57249999999999901</v>
       </c>
       <c r="R3">
-        <v>10.119999999999999</v>
+        <v>0.57364705882352895</v>
       </c>
       <c r="S3">
-        <v>10.772</v>
+        <v>0.57822222222222197</v>
       </c>
       <c r="T3">
-        <v>11.44</v>
+        <v>0.57957894736842097</v>
       </c>
       <c r="U3">
-        <v>12.04</v>
+        <v>0.5806</v>
       </c>
       <c r="V3">
-        <v>12.708</v>
+        <v>0.58419047619047604</v>
       </c>
       <c r="W3">
-        <v>13.368</v>
+        <v>0.58981818181818202</v>
       </c>
       <c r="X3">
-        <v>14.036</v>
+        <v>0.59165217391304303</v>
       </c>
       <c r="Y3">
-        <v>14.735999999999899</v>
+        <v>0.59416666666666595</v>
       </c>
       <c r="Z3">
-        <v>15.388</v>
+        <v>0.59775999999999896</v>
       </c>
       <c r="AA3">
-        <v>16.052</v>
+        <v>0.60230769230769199</v>
       </c>
       <c r="AB3">
-        <v>16.7</v>
+        <v>0.60281481481481403</v>
       </c>
       <c r="AC3">
-        <v>17.38</v>
+        <v>0.60542857142857098</v>
       </c>
       <c r="AD3">
-        <v>18.015999999999899</v>
+        <v>0.606344827586207</v>
       </c>
       <c r="AE3">
-        <v>18.744</v>
+        <v>0.60693333333333199</v>
       </c>
       <c r="AF3">
-        <v>19.423999999999999</v>
+        <v>0.60941935483870902</v>
       </c>
       <c r="AG3">
-        <v>20.087999999999901</v>
+        <v>0.61362499999999998</v>
       </c>
       <c r="AH3">
-        <v>20.751999999999899</v>
+        <v>0.61539393939393905</v>
       </c>
       <c r="AI3">
-        <v>21.4559999999999</v>
+        <v>0.61882352941176499</v>
       </c>
       <c r="AJ3">
-        <v>22.12</v>
+        <v>0.62182857142857095</v>
       </c>
       <c r="AK3">
-        <v>22.755999999999901</v>
+        <v>0.62355555555555497</v>
       </c>
       <c r="AL3">
-        <v>23.4239999999999</v>
+        <v>0.62594594594594599</v>
       </c>
       <c r="AM3">
-        <v>24.128</v>
+        <v>0.62831578947368405</v>
       </c>
       <c r="AN3">
-        <v>24.815999999999999</v>
+        <v>0.62964102564102498</v>
       </c>
       <c r="AO3">
-        <v>25.492000000000001</v>
+        <v>0.63109999999999999</v>
       </c>
       <c r="AP3">
-        <v>26.132000000000001</v>
+        <v>0.63317073170731597</v>
       </c>
       <c r="AQ3">
-        <v>26.788</v>
+        <v>0.63438095238095205</v>
       </c>
       <c r="AR3">
-        <v>27.492000000000001</v>
+        <v>0.63553488372093003</v>
       </c>
       <c r="AS3">
-        <v>28.2</v>
+        <v>0.63736363636363602</v>
       </c>
       <c r="AT3">
-        <v>28.86</v>
+        <v>0.63928888888888802</v>
       </c>
       <c r="AU3">
-        <v>29.547999999999998</v>
+        <v>0.64095652173912898</v>
       </c>
       <c r="AV3">
-        <v>30.244</v>
+        <v>0.64170212765957502</v>
       </c>
       <c r="AW3">
-        <v>30.908000000000001</v>
+        <v>0.641166666666666</v>
       </c>
       <c r="AX3">
-        <v>31.568000000000001</v>
+        <v>0.64220408163265197</v>
       </c>
       <c r="AY3">
-        <v>32.227999999999902</v>
+        <v>0.64351999999999898</v>
       </c>
       <c r="AZ3">
-        <v>32.9119999999999</v>
+        <v>0.64447058823529302</v>
       </c>
       <c r="BA3">
-        <v>33.559999999999903</v>
+        <v>0.64546153846153798</v>
       </c>
       <c r="BB3">
-        <v>34.267999999999901</v>
+        <v>0.646188679245283</v>
       </c>
       <c r="BC3">
-        <v>34.944000000000003</v>
+        <v>0.64688888888888896</v>
       </c>
       <c r="BD3">
-        <v>35.628</v>
+        <v>0.64770909090909001</v>
       </c>
       <c r="BE3">
-        <v>36.415999999999897</v>
+        <v>0.64864285714285697</v>
       </c>
       <c r="BF3">
-        <v>37.111999999999902</v>
+        <v>0.648912280701753</v>
       </c>
       <c r="BG3">
-        <v>37.808</v>
+        <v>0.64944827586206799</v>
       </c>
       <c r="BH3">
-        <v>38.5</v>
+        <v>0.64955932203389799</v>
       </c>
       <c r="BI3">
-        <v>39.192</v>
+        <v>0.64979999999999905</v>
       </c>
       <c r="BJ3">
-        <v>39.851999999999897</v>
+        <v>0.65003278688524602</v>
       </c>
       <c r="BK3">
-        <v>40.587999999999901</v>
+        <v>0.65103225806451503</v>
       </c>
       <c r="BL3">
-        <v>41.271999999999998</v>
+        <v>0.65282539682539598</v>
       </c>
       <c r="BM3">
-        <v>41.94</v>
+        <v>0.65325</v>
       </c>
       <c r="BN3">
-        <v>42.6</v>
+        <v>0.65439999999999898</v>
       </c>
       <c r="BO3">
-        <v>43.304000000000002</v>
+        <v>0.65387878787878795</v>
       </c>
       <c r="BP3">
-        <v>43.944000000000003</v>
+        <v>0.65379104477611905</v>
       </c>
       <c r="BQ3">
-        <v>44.619999999999898</v>
+        <v>0.65423529411764603</v>
       </c>
       <c r="BR3">
-        <v>45.295999999999999</v>
+        <v>0.65489855072463499</v>
       </c>
       <c r="BS3">
-        <v>46.008000000000003</v>
+        <v>0.65594285714285705</v>
       </c>
       <c r="BT3">
-        <v>46.704000000000001</v>
+        <v>0.65684507042253504</v>
       </c>
       <c r="BU3">
-        <v>47.4119999999999</v>
+        <v>0.65705555555555495</v>
       </c>
       <c r="BV3">
-        <v>48.131999999999998</v>
+        <v>0.656931506849316</v>
       </c>
       <c r="BW3">
-        <v>48.84</v>
+        <v>0.65708108108108099</v>
       </c>
       <c r="BX3">
-        <v>49.52</v>
+        <v>0.65743999999999903</v>
       </c>
       <c r="BY3">
-        <v>50.223999999999897</v>
+        <v>0.65731578947368396</v>
       </c>
       <c r="BZ3">
-        <v>50.908000000000001</v>
+        <v>0.65771428571428603</v>
       </c>
       <c r="CA3">
-        <v>51.607999999999898</v>
+        <v>0.65723076923076895</v>
       </c>
       <c r="CB3">
-        <v>52.256</v>
+        <v>0.65726582278481005</v>
       </c>
       <c r="CC3">
-        <v>52.884</v>
+        <v>0.65849999999999898</v>
       </c>
       <c r="CD3">
-        <v>53.616</v>
+        <v>0.65841975308641998</v>
       </c>
       <c r="CE3">
-        <v>54.351999999999997</v>
+        <v>0.65936585365853595</v>
       </c>
       <c r="CF3">
-        <v>55.036000000000001</v>
+        <v>0.65937349397590295</v>
       </c>
       <c r="CG3">
-        <v>55.764000000000003</v>
+        <v>0.65990476190476199</v>
       </c>
       <c r="CH3">
-        <v>56.455999999999896</v>
+        <v>0.66004705882352899</v>
       </c>
       <c r="CI3">
-        <v>57.155999999999999</v>
+        <v>0.66065116279069702</v>
       </c>
       <c r="CJ3">
-        <v>57.84</v>
+        <v>0.66105747126436698</v>
       </c>
       <c r="CK3">
-        <v>58.512</v>
+        <v>0.66145454545454596</v>
       </c>
       <c r="CL3">
-        <v>59.228000000000002</v>
+        <v>0.66193258426966095</v>
       </c>
       <c r="CM3">
-        <v>59.94</v>
+        <v>0.66266666666666696</v>
       </c>
       <c r="CN3">
-        <v>60.603999999999999</v>
+        <v>0.66290109890109805</v>
       </c>
       <c r="CO3">
-        <v>61.335999999999999</v>
+        <v>0.66317391304347795</v>
       </c>
       <c r="CP3">
-        <v>62.072000000000003</v>
+        <v>0.66288172043010696</v>
       </c>
       <c r="CQ3">
-        <v>62.787999999999997</v>
+        <v>0.66331914893617006</v>
       </c>
       <c r="CR3">
-        <v>63.463999999999999</v>
+        <v>0.66404210526315799</v>
       </c>
       <c r="CS3">
-        <v>64.16</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="CT3">
-        <v>64.863999999999905</v>
+        <v>0.66441237113401996</v>
       </c>
       <c r="CU3">
-        <v>65.611999999999995</v>
+        <v>0.664897959183673</v>
       </c>
       <c r="CV3">
-        <v>66.3</v>
+        <v>0.66517171717171597</v>
       </c>
       <c r="CW3">
-        <v>66.995999999999896</v>
+        <v>0.66544000000000003</v>
       </c>
       <c r="CX3">
-        <v>67.676000000000002</v>
+        <v>0.665188118811881</v>
       </c>
       <c r="CY3">
-        <v>68.372</v>
+        <v>0.665568627450981</v>
       </c>
       <c r="CZ3">
-        <v>69.096000000000004</v>
+        <v>0.66524271844660199</v>
       </c>
       <c r="DA3">
-        <v>69.767999999999901</v>
+        <v>0.66553846153846097</v>
       </c>
       <c r="DB3">
-        <v>70.443999999999903</v>
+        <v>0.66544761904761895</v>
       </c>
       <c r="DC3">
-        <v>71.175999999999902</v>
+        <v>0.66573584905660299</v>
       </c>
       <c r="DD3">
-        <v>71.908000000000001</v>
+        <v>0.665719626168224</v>
       </c>
       <c r="DE3">
-        <v>72.667999999999907</v>
+        <v>0.66603703703703698</v>
       </c>
       <c r="DF3">
-        <v>73.42</v>
+        <v>0.66638532110091697</v>
       </c>
       <c r="DG3">
-        <v>74.067999999999998</v>
+        <v>0.66712727272727201</v>
       </c>
       <c r="DH3">
-        <v>74.768000000000001</v>
+        <v>0.66720720720720705</v>
       </c>
       <c r="DI3">
-        <v>75.491999999999905</v>
+        <v>0.66771428571428504</v>
       </c>
       <c r="DJ3">
-        <v>76.183999999999997</v>
+        <v>0.66789380530973497</v>
       </c>
       <c r="DK3">
-        <v>76.867999999999896</v>
+        <v>0.66845614035087797</v>
       </c>
       <c r="DL3">
-        <v>77.579999999999899</v>
+        <v>0.66879999999999895</v>
       </c>
       <c r="DM3">
-        <v>78.279999999999902</v>
+        <v>0.66910344827586199</v>
       </c>
       <c r="DN3">
-        <v>78.995999999999995</v>
+        <v>0.66909401709401695</v>
       </c>
       <c r="DO3">
-        <v>79.627999999999901</v>
+        <v>0.66959322033898205</v>
       </c>
       <c r="DP3">
-        <v>80.347999999999999</v>
+        <v>0.66964705882352804</v>
       </c>
       <c r="DQ3">
-        <v>81.039999999999907</v>
+        <v>0.66959999999999997</v>
       </c>
       <c r="DR3">
-        <v>81.727999999999895</v>
+        <v>0.66978512396694201</v>
       </c>
       <c r="DS3">
-        <v>82.432000000000002</v>
+        <v>0.670229508196721</v>
       </c>
       <c r="DT3">
-        <v>83.132000000000005</v>
+        <v>0.67050406504064997</v>
       </c>
       <c r="DU3">
-        <v>83.8</v>
+        <v>0.67090322580645001</v>
       </c>
       <c r="DV3">
-        <v>84.548000000000002</v>
+        <v>0.67097600000000002</v>
       </c>
       <c r="DW3">
-        <v>85.268000000000001</v>
+        <v>0.67117460317460198</v>
       </c>
       <c r="DX3">
-        <v>85.963999999999899</v>
+        <v>0.67133858267716395</v>
       </c>
       <c r="DY3">
-        <v>86.647999999999897</v>
+        <v>0.67131249999999998</v>
       </c>
       <c r="DZ3">
-        <v>87.3479999999999</v>
+        <v>0.67147286821705399</v>
       </c>
       <c r="EA3">
-        <v>88.067999999999898</v>
+        <v>0.67209230769230799</v>
       </c>
       <c r="EB3">
-        <v>88.768000000000001</v>
+        <v>0.67215267175572502</v>
       </c>
       <c r="EC3">
-        <v>89.415999999999997</v>
+        <v>0.67245454545454597</v>
       </c>
       <c r="ED3">
-        <v>90.14</v>
+        <v>0.67239097744360898</v>
       </c>
       <c r="EE3">
-        <v>90.88</v>
+        <v>0.67277611940298498</v>
       </c>
       <c r="EF3">
-        <v>91.647999999999897</v>
+        <v>0.67279999999999995</v>
       </c>
       <c r="EG3">
-        <v>92.38</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="EH3">
-        <v>93.075999999999993</v>
+        <v>0.67313868613138605</v>
       </c>
       <c r="EI3">
-        <v>93.759999999999906</v>
+        <v>0.673275362318839</v>
       </c>
       <c r="EJ3">
-        <v>94.503999999999905</v>
+        <v>0.673179856115106</v>
       </c>
       <c r="EK3">
-        <v>95.24</v>
+        <v>0.673828571428571</v>
       </c>
       <c r="EL3">
-        <v>95.915999999999997</v>
+        <v>0.67367375886524805</v>
       </c>
       <c r="EM3">
-        <v>96.628</v>
+        <v>0.67383098591549295</v>
       </c>
       <c r="EN3">
-        <v>97.255999999999901</v>
+        <v>0.67420979020978999</v>
       </c>
       <c r="EO3">
-        <v>97.992000000000004</v>
+        <v>0.67408333333333303</v>
       </c>
       <c r="EP3">
-        <v>98.66</v>
+        <v>0.67426206896551699</v>
       </c>
       <c r="EQ3">
-        <v>99.367999999999995</v>
+        <v>0.674520547945204</v>
       </c>
       <c r="ER3">
-        <v>100.1</v>
+        <v>0.67450340136054399</v>
       </c>
       <c r="ES3">
-        <v>100.79600000000001</v>
+        <v>0.67445945945945895</v>
       </c>
       <c r="ET3">
-        <v>101.496</v>
+        <v>0.67455033557046895</v>
       </c>
       <c r="EU3">
-        <v>102.164</v>
+        <v>0.67498666666666596</v>
       </c>
       <c r="EV3">
-        <v>102.852</v>
+        <v>0.67520529801324503</v>
       </c>
       <c r="EW3">
-        <v>103.6</v>
+        <v>0.67518421052631505</v>
       </c>
       <c r="EX3">
-        <v>104.32</v>
+        <v>0.67482352941176404</v>
       </c>
       <c r="EY3">
-        <v>105.07199999999899</v>
+        <v>0.67488311688311697</v>
       </c>
       <c r="EZ3">
-        <v>105.76</v>
+        <v>0.67504516129032199</v>
       </c>
       <c r="FA3">
-        <v>106.48</v>
+        <v>0.67528205128205099</v>
       </c>
       <c r="FB3">
-        <v>107.167999999999</v>
+        <v>0.675210191082803</v>
       </c>
       <c r="FC3">
-        <v>107.864</v>
+        <v>0.67567088607594805</v>
       </c>
       <c r="FD3">
-        <v>108.592</v>
+        <v>0.67572327044025104</v>
       </c>
       <c r="FE3">
-        <v>109.28400000000001</v>
+        <v>0.67582499999999901</v>
       </c>
       <c r="FF3">
-        <v>109.976</v>
+        <v>0.67592546583850899</v>
       </c>
       <c r="FG3">
-        <v>110.64400000000001</v>
+        <v>0.67595061728395001</v>
       </c>
       <c r="FH3">
-        <v>111.268</v>
+        <v>0.67595092024539805</v>
       </c>
       <c r="FI3">
-        <v>112.02800000000001</v>
+        <v>0.67639024390243796</v>
       </c>
       <c r="FJ3">
-        <v>112.676</v>
+        <v>0.67646060606060499</v>
       </c>
       <c r="FK3">
-        <v>113.408</v>
+        <v>0.676265060240963</v>
       </c>
       <c r="FL3">
-        <v>114.152</v>
+        <v>0.67645508982035996</v>
       </c>
       <c r="FM3">
-        <v>114.916</v>
+        <v>0.67683333333333295</v>
       </c>
       <c r="FN3">
-        <v>115.584</v>
+        <v>0.67706508875739602</v>
       </c>
       <c r="FO3">
-        <v>116.292</v>
+        <v>0.677223529411765</v>
       </c>
       <c r="FP3">
-        <v>116.96</v>
+        <v>0.67726315789473501</v>
       </c>
       <c r="FQ3">
-        <v>117.664</v>
+        <v>0.67769767441860396</v>
       </c>
       <c r="FR3">
-        <v>118.376</v>
+        <v>0.677919075144508</v>
       </c>
       <c r="FS3">
-        <v>119.096</v>
+        <v>0.67790804597701004</v>
       </c>
       <c r="FT3">
-        <v>119.776</v>
+        <v>0.67814857142856999</v>
       </c>
       <c r="FU3">
-        <v>120.492</v>
+        <v>0.678204545454545</v>
       </c>
       <c r="FV3">
-        <v>121.232</v>
+        <v>0.67835028248587603</v>
       </c>
       <c r="FW3">
-        <v>121.92</v>
+        <v>0.67847191011235797</v>
       </c>
       <c r="FX3">
-        <v>122.65600000000001</v>
+        <v>0.67874860335195497</v>
       </c>
       <c r="FY3">
-        <v>123.372</v>
+        <v>0.67906666666666604</v>
       </c>
       <c r="FZ3">
-        <v>124.01600000000001</v>
+        <v>0.67898342541436496</v>
       </c>
       <c r="GA3">
-        <v>124.69199999999999</v>
+        <v>0.67912087912087904</v>
       </c>
       <c r="GB3">
-        <v>125.38</v>
+        <v>0.67923497267759503</v>
       </c>
       <c r="GC3">
-        <v>126.048</v>
+        <v>0.67949999999999999</v>
       </c>
       <c r="GD3">
-        <v>126.74</v>
+        <v>0.67987027027027003</v>
       </c>
       <c r="GE3">
-        <v>127.391999999999</v>
+        <v>0.67974193548387096</v>
       </c>
       <c r="GF3">
-        <v>128.148</v>
+        <v>0.67991443850267397</v>
       </c>
       <c r="GG3">
-        <v>128.84799999999899</v>
+        <v>0.68002127659574396</v>
       </c>
       <c r="GH3">
-        <v>129.54</v>
+        <v>0.67995767195767098</v>
       </c>
       <c r="GI3">
-        <v>130.28800000000001</v>
+        <v>0.67983157894736801</v>
       </c>
       <c r="GJ3">
-        <v>130.98399999999901</v>
+        <v>0.68006282722513101</v>
       </c>
       <c r="GK3">
-        <v>131.66800000000001</v>
+        <v>0.68010416666666595</v>
       </c>
       <c r="GL3">
-        <v>132.34799999999899</v>
+        <v>0.68029015544041505</v>
       </c>
       <c r="GM3">
-        <v>133.012</v>
+        <v>0.68006185567010302</v>
       </c>
       <c r="GN3">
-        <v>133.707999999999</v>
+        <v>0.68004102564102498</v>
       </c>
       <c r="GO3">
-        <v>134.41200000000001</v>
+        <v>0.68022448979591699</v>
       </c>
       <c r="GP3">
-        <v>135.10400000000001</v>
+        <v>0.68062944162436501</v>
       </c>
       <c r="GQ3">
-        <v>135.80000000000001</v>
+        <v>0.68088888888888999</v>
       </c>
       <c r="GR3">
-        <v>136.50399999999999</v>
+        <v>0.68116582914572799</v>
       </c>
       <c r="GS3">
-        <v>137.184</v>
+        <v>0.68144000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:201">
@@ -15631,604 +15658,604 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.46400000000000002</v>
+        <v>0.46</v>
       </c>
       <c r="C4">
-        <v>0.96399999999999997</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="D4">
-        <v>1.49999999999999</v>
+        <v>0.499999999999999</v>
       </c>
       <c r="E4">
-        <v>2.052</v>
+        <v>0.51299999999999901</v>
       </c>
       <c r="F4">
-        <v>2.5680000000000001</v>
+        <v>0.51279999999999903</v>
       </c>
       <c r="G4">
-        <v>3.0959999999999899</v>
+        <v>0.51799999999999902</v>
       </c>
       <c r="H4">
-        <v>3.6520000000000001</v>
+        <v>0.52057142857142802</v>
       </c>
       <c r="I4">
-        <v>4.2080000000000002</v>
+        <v>0.53249999999999897</v>
       </c>
       <c r="J4">
-        <v>4.7960000000000003</v>
+        <v>0.53911111111111099</v>
       </c>
       <c r="K4">
-        <v>5.3280000000000003</v>
+        <v>0.53879999999999995</v>
       </c>
       <c r="L4">
-        <v>5.8760000000000003</v>
+        <v>0.53854545454545399</v>
       </c>
       <c r="M4">
-        <v>6.452</v>
+        <v>0.543333333333333</v>
       </c>
       <c r="N4">
-        <v>7.016</v>
+        <v>0.54430769230769205</v>
       </c>
       <c r="O4">
-        <v>7.64</v>
+        <v>0.54542857142857104</v>
       </c>
       <c r="P4">
-        <v>8.2359999999999793</v>
+        <v>0.54693333333333305</v>
       </c>
       <c r="Q4">
-        <v>8.8119999999999905</v>
+        <v>0.54749999999999999</v>
       </c>
       <c r="R4">
-        <v>9.4239999999999906</v>
+        <v>0.54917647058823504</v>
       </c>
       <c r="S4">
-        <v>9.9559999999999995</v>
+        <v>0.55355555555555602</v>
       </c>
       <c r="T4">
-        <v>10.544</v>
+        <v>0.55536842105263196</v>
       </c>
       <c r="U4">
-        <v>11.139999999999899</v>
+        <v>0.55679999999999996</v>
       </c>
       <c r="V4">
-        <v>11.7959999999999</v>
+        <v>0.55333333333333201</v>
       </c>
       <c r="W4">
-        <v>12.351999999999901</v>
+        <v>0.55581818181818199</v>
       </c>
       <c r="X4">
-        <v>12.912000000000001</v>
+        <v>0.55617391304347696</v>
       </c>
       <c r="Y4">
-        <v>13.532</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="Z4">
-        <v>14.151999999999999</v>
+        <v>0.55935999999999997</v>
       </c>
       <c r="AA4">
-        <v>14.76</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="AB4">
-        <v>15.311999999999999</v>
+        <v>0.562962962962963</v>
       </c>
       <c r="AC4">
-        <v>15.875999999999999</v>
+        <v>0.56457142857142895</v>
       </c>
       <c r="AD4">
-        <v>16.48</v>
+        <v>0.56606896551724095</v>
       </c>
       <c r="AE4">
-        <v>17.059999999999999</v>
+        <v>0.56839999999999902</v>
       </c>
       <c r="AF4">
-        <v>17.64</v>
+        <v>0.56929032258064505</v>
       </c>
       <c r="AG4">
-        <v>18.271999999999899</v>
+        <v>0.56887500000000002</v>
       </c>
       <c r="AH4">
-        <v>18.887999999999899</v>
+        <v>0.57139393939393901</v>
       </c>
       <c r="AI4">
-        <v>19.475999999999999</v>
+        <v>0.57317647058823595</v>
       </c>
       <c r="AJ4">
-        <v>20.088000000000001</v>
+        <v>0.57337142857142798</v>
       </c>
       <c r="AK4">
-        <v>20.707999999999998</v>
+        <v>0.57477777777777705</v>
       </c>
       <c r="AL4">
-        <v>21.3</v>
+        <v>0.57556756756756799</v>
       </c>
       <c r="AM4">
-        <v>21.943999999999999</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="AN4">
-        <v>22.515999999999998</v>
+        <v>0.57723076923076899</v>
       </c>
       <c r="AO4">
-        <v>23.111999999999998</v>
+        <v>0.5796</v>
       </c>
       <c r="AP4">
-        <v>23.744</v>
+        <v>0.57980487804878</v>
       </c>
       <c r="AQ4">
-        <v>24.408000000000001</v>
+        <v>0.580666666666666</v>
       </c>
       <c r="AR4">
-        <v>25.075999999999901</v>
+        <v>0.58111627906976704</v>
       </c>
       <c r="AS4">
-        <v>25.724</v>
+        <v>0.58272727272727098</v>
       </c>
       <c r="AT4">
-        <v>26.315999999999999</v>
+        <v>0.58293333333333297</v>
       </c>
       <c r="AU4">
-        <v>26.972000000000001</v>
+        <v>0.58252173913043404</v>
       </c>
       <c r="AV4">
-        <v>27.584</v>
+        <v>0.583234042553193</v>
       </c>
       <c r="AW4">
-        <v>28.164000000000001</v>
+        <v>0.58450000000000002</v>
       </c>
       <c r="AX4">
-        <v>28.768000000000001</v>
+        <v>0.58555102040816198</v>
       </c>
       <c r="AY4">
-        <v>29.384</v>
+        <v>0.58584000000000003</v>
       </c>
       <c r="AZ4">
-        <v>29.963999999999999</v>
+        <v>0.58752941176470497</v>
       </c>
       <c r="BA4">
-        <v>30.547999999999998</v>
+        <v>0.58861538461538399</v>
       </c>
       <c r="BB4">
-        <v>31.196000000000002</v>
+        <v>0.58860377358490501</v>
       </c>
       <c r="BC4">
-        <v>31.795999999999999</v>
+        <v>0.588666666666667</v>
       </c>
       <c r="BD4">
-        <v>32.408000000000001</v>
+        <v>0.58829090909090898</v>
       </c>
       <c r="BE4">
-        <v>32.991999999999997</v>
+        <v>0.58857142857142797</v>
       </c>
       <c r="BF4">
-        <v>33.584000000000003</v>
+        <v>0.58947368421052604</v>
       </c>
       <c r="BG4">
-        <v>34.171999999999898</v>
+        <v>0.590482758620689</v>
       </c>
       <c r="BH4">
-        <v>34.811999999999998</v>
+        <v>0.59111864406779602</v>
       </c>
       <c r="BI4">
-        <v>35.463999999999899</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="BJ4">
-        <v>36.071999999999903</v>
+        <v>0.59219672131147505</v>
       </c>
       <c r="BK4">
-        <v>36.699999999999903</v>
+        <v>0.59283870967741803</v>
       </c>
       <c r="BL4">
-        <v>37.315999999999903</v>
+        <v>0.59288888888888802</v>
       </c>
       <c r="BM4">
-        <v>37.983999999999902</v>
+        <v>0.59362499999999996</v>
       </c>
       <c r="BN4">
-        <v>38.599999999999902</v>
+        <v>0.59403076923076803</v>
       </c>
       <c r="BO4">
-        <v>39.215999999999902</v>
+        <v>0.59484848484848496</v>
       </c>
       <c r="BP4">
-        <v>39.831999999999901</v>
+        <v>0.59540298507462597</v>
       </c>
       <c r="BQ4">
-        <v>40.415999999999897</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="BR4">
-        <v>41.088000000000001</v>
+        <v>0.59669565217391196</v>
       </c>
       <c r="BS4">
-        <v>41.643999999999899</v>
+        <v>0.59645714285714302</v>
       </c>
       <c r="BT4">
-        <v>42.268000000000001</v>
+        <v>0.59622535211267502</v>
       </c>
       <c r="BU4">
-        <v>42.856000000000002</v>
+        <v>0.59605555555555401</v>
       </c>
       <c r="BV4">
-        <v>43.436</v>
+        <v>0.59671232876712299</v>
       </c>
       <c r="BW4">
-        <v>44.128</v>
+        <v>0.59724324324324296</v>
       </c>
       <c r="BX4">
-        <v>44.82</v>
+        <v>0.59749333333333199</v>
       </c>
       <c r="BY4">
-        <v>45.4359999999999</v>
+        <v>0.59757894736841999</v>
       </c>
       <c r="BZ4">
-        <v>46.084000000000003</v>
+        <v>0.59750649350649299</v>
       </c>
       <c r="CA4">
-        <v>46.655999999999899</v>
+        <v>0.59753846153846102</v>
       </c>
       <c r="CB4">
-        <v>47.228000000000002</v>
+        <v>0.59721518987341804</v>
       </c>
       <c r="CC4">
-        <v>47.808</v>
+        <v>0.59775</v>
       </c>
       <c r="CD4">
-        <v>48.427999999999997</v>
+        <v>0.59832098765432096</v>
       </c>
       <c r="CE4">
-        <v>49.067999999999998</v>
+        <v>0.59858536585365796</v>
       </c>
       <c r="CF4">
-        <v>49.655999999999999</v>
+        <v>0.599373493975903</v>
       </c>
       <c r="CG4">
-        <v>50.271999999999998</v>
+        <v>0.59933333333333205</v>
       </c>
       <c r="CH4">
-        <v>50.891999999999904</v>
+        <v>0.59919999999999896</v>
       </c>
       <c r="CI4">
-        <v>51.54</v>
+        <v>0.59958139534883603</v>
       </c>
       <c r="CJ4">
-        <v>52.116</v>
+        <v>0.59977011494252797</v>
       </c>
       <c r="CK4">
-        <v>52.752000000000002</v>
+        <v>0.60068181818181798</v>
       </c>
       <c r="CL4">
-        <v>53.375999999999998</v>
+        <v>0.60107865168539198</v>
       </c>
       <c r="CM4">
-        <v>53.999999999999901</v>
+        <v>0.60137777777777801</v>
       </c>
       <c r="CN4">
-        <v>54.636000000000003</v>
+        <v>0.60149450549450401</v>
       </c>
       <c r="CO4">
-        <v>55.212000000000003</v>
+        <v>0.60165217391304304</v>
       </c>
       <c r="CP4">
-        <v>55.835999999999999</v>
+        <v>0.60146236559139798</v>
       </c>
       <c r="CQ4">
-        <v>56.432000000000002</v>
+        <v>0.60144680851063903</v>
       </c>
       <c r="CR4">
-        <v>57.02</v>
+        <v>0.60113684210526397</v>
       </c>
       <c r="CS4">
-        <v>57.603999999999999</v>
+        <v>0.60095833333333304</v>
       </c>
       <c r="CT4">
-        <v>58.195999999999998</v>
+        <v>0.60152577319587597</v>
       </c>
       <c r="CU4">
-        <v>58.851999999999997</v>
+        <v>0.60159183673469396</v>
       </c>
       <c r="CV4">
-        <v>59.4</v>
+        <v>0.60202020202020201</v>
       </c>
       <c r="CW4">
-        <v>60.064</v>
+        <v>0.60211999999999999</v>
       </c>
       <c r="CX4">
-        <v>60.671999999999997</v>
+        <v>0.60186138613861295</v>
       </c>
       <c r="CY4">
-        <v>61.271999999999998</v>
+        <v>0.60172549019607902</v>
       </c>
       <c r="CZ4">
-        <v>61.911999999999999</v>
+        <v>0.60182524271844595</v>
       </c>
       <c r="DA4">
-        <v>62.531999999999996</v>
+        <v>0.60207692307692195</v>
       </c>
       <c r="DB4">
-        <v>63.171999999999997</v>
+        <v>0.601866666666665</v>
       </c>
       <c r="DC4">
-        <v>63.907999999999902</v>
+        <v>0.60237735849056595</v>
       </c>
       <c r="DD4">
-        <v>64.551999999999893</v>
+        <v>0.60276635514018595</v>
       </c>
       <c r="DE4">
-        <v>65.171999999999898</v>
+        <v>0.60314814814814799</v>
       </c>
       <c r="DF4">
-        <v>65.795999999999907</v>
+        <v>0.60341284403669604</v>
       </c>
       <c r="DG4">
-        <v>66.451999999999998</v>
+        <v>0.60403636363636304</v>
       </c>
       <c r="DH4">
-        <v>67.091999999999999</v>
+        <v>0.60389189189189196</v>
       </c>
       <c r="DI4">
-        <v>67.772000000000006</v>
+        <v>0.60385714285714198</v>
       </c>
       <c r="DJ4">
-        <v>68.387999999999906</v>
+        <v>0.60428318584070695</v>
       </c>
       <c r="DK4">
-        <v>69.007999999999896</v>
+        <v>0.60445614035087802</v>
       </c>
       <c r="DL4">
-        <v>69.671999999999997</v>
+        <v>0.60417391304347601</v>
       </c>
       <c r="DM4">
-        <v>70.2439999999999</v>
+        <v>0.60441379310344701</v>
       </c>
       <c r="DN4">
-        <v>70.803999999999903</v>
+        <v>0.60451282051281996</v>
       </c>
       <c r="DO4">
-        <v>71.427999999999997</v>
+        <v>0.60461016949152502</v>
       </c>
       <c r="DP4">
-        <v>72.024000000000001</v>
+        <v>0.60460504201680598</v>
       </c>
       <c r="DQ4">
-        <v>72.635999999999996</v>
+        <v>0.60463333333333302</v>
       </c>
       <c r="DR4">
-        <v>73.259999999999906</v>
+        <v>0.60469421487603203</v>
       </c>
       <c r="DS4">
-        <v>73.86</v>
+        <v>0.60442622950819702</v>
       </c>
       <c r="DT4">
-        <v>74.436000000000007</v>
+        <v>0.60461788617886203</v>
       </c>
       <c r="DU4">
-        <v>75.099999999999895</v>
+        <v>0.60487096774193505</v>
       </c>
       <c r="DV4">
-        <v>75.759999999999906</v>
+        <v>0.60486399999999996</v>
       </c>
       <c r="DW4">
-        <v>76.355999999999895</v>
+        <v>0.60504761904761895</v>
       </c>
       <c r="DX4">
-        <v>77.016000000000005</v>
+        <v>0.605070866141732</v>
       </c>
       <c r="DY4">
-        <v>77.623999999999896</v>
+        <v>0.60481249999999998</v>
       </c>
       <c r="DZ4">
-        <v>78.239999999999895</v>
+        <v>0.60520930232558101</v>
       </c>
       <c r="EA4">
-        <v>78.847999999999999</v>
+        <v>0.60504615384615301</v>
       </c>
       <c r="EB4">
-        <v>79.471999999999994</v>
+        <v>0.60503816793892995</v>
       </c>
       <c r="EC4">
-        <v>80.079999999999899</v>
+        <v>0.60496969696969605</v>
       </c>
       <c r="ED4">
-        <v>80.735999999999905</v>
+        <v>0.60460150375939903</v>
       </c>
       <c r="EE4">
-        <v>81.323999999999899</v>
+        <v>0.60444776119402899</v>
       </c>
       <c r="EF4">
-        <v>81.896000000000001</v>
+        <v>0.60471111111110998</v>
       </c>
       <c r="EG4">
-        <v>82.471999999999994</v>
+        <v>0.60494117647058798</v>
       </c>
       <c r="EH4">
-        <v>83.075999999999894</v>
+        <v>0.60519708029197095</v>
       </c>
       <c r="EI4">
-        <v>83.664000000000001</v>
+        <v>0.60542028985507101</v>
       </c>
       <c r="EJ4">
-        <v>84.311999999999998</v>
+        <v>0.60555395683453195</v>
       </c>
       <c r="EK4">
-        <v>84.915999999999897</v>
+        <v>0.60545714285714303</v>
       </c>
       <c r="EL4">
-        <v>85.5</v>
+        <v>0.60578723404255397</v>
       </c>
       <c r="EM4">
-        <v>86.111999999999895</v>
+        <v>0.60597183098591501</v>
       </c>
       <c r="EN4">
-        <v>86.707999999999998</v>
+        <v>0.60590209790209804</v>
       </c>
       <c r="EO4">
-        <v>87.296000000000006</v>
+        <v>0.60599999999999898</v>
       </c>
       <c r="EP4">
-        <v>87.908000000000001</v>
+        <v>0.60601379310344805</v>
       </c>
       <c r="EQ4">
-        <v>88.52</v>
+        <v>0.60578082191780802</v>
       </c>
       <c r="ER4">
-        <v>89.123999999999995</v>
+        <v>0.60595918367346902</v>
       </c>
       <c r="ES4">
-        <v>89.7319999999999</v>
+        <v>0.606459459459459</v>
       </c>
       <c r="ET4">
-        <v>90.335999999999999</v>
+        <v>0.60687248322147602</v>
       </c>
       <c r="EU4">
-        <v>90.932000000000002</v>
+        <v>0.60655999999999999</v>
       </c>
       <c r="EV4">
-        <v>91.563999999999993</v>
+        <v>0.60680794701986795</v>
       </c>
       <c r="EW4">
-        <v>92.168000000000006</v>
+        <v>0.60726315789473595</v>
       </c>
       <c r="EX4">
-        <v>92.811999999999998</v>
+        <v>0.60690196078431302</v>
       </c>
       <c r="EY4">
-        <v>93.376000000000005</v>
+        <v>0.60716883116883102</v>
       </c>
       <c r="EZ4">
-        <v>93.983999999999895</v>
+        <v>0.60756129032257999</v>
       </c>
       <c r="FA4">
-        <v>94.6159999999999</v>
+        <v>0.607615384615384</v>
       </c>
       <c r="FB4">
-        <v>95.183999999999997</v>
+        <v>0.60777070063694205</v>
       </c>
       <c r="FC4">
-        <v>95.771999999999906</v>
+        <v>0.60779746835442905</v>
       </c>
       <c r="FD4">
-        <v>96.351999999999904</v>
+        <v>0.60784905660377297</v>
       </c>
       <c r="FE4">
-        <v>96.988</v>
+        <v>0.60774999999999901</v>
       </c>
       <c r="FF4">
-        <v>97.571999999999903</v>
+        <v>0.60770186335403698</v>
       </c>
       <c r="FG4">
-        <v>98.223999999999904</v>
+        <v>0.60787654320987605</v>
       </c>
       <c r="FH4">
-        <v>98.884</v>
+        <v>0.60773006134969298</v>
       </c>
       <c r="FI4">
-        <v>99.504000000000005</v>
+        <v>0.60785365853658502</v>
       </c>
       <c r="FJ4">
-        <v>100.155999999999</v>
+        <v>0.60768484848484905</v>
       </c>
       <c r="FK4">
-        <v>100.77999999999901</v>
+        <v>0.60730120481927596</v>
       </c>
       <c r="FL4">
-        <v>101.396</v>
+        <v>0.607520958083831</v>
       </c>
       <c r="FM4">
-        <v>101.979999999999</v>
+        <v>0.607261904761904</v>
       </c>
       <c r="FN4">
-        <v>102.623999999999</v>
+        <v>0.60738461538461397</v>
       </c>
       <c r="FO4">
-        <v>103.236</v>
+        <v>0.60727058823529301</v>
       </c>
       <c r="FP4">
-        <v>103.82</v>
+        <v>0.60753216374268904</v>
       </c>
       <c r="FQ4">
-        <v>104.487999999999</v>
+        <v>0.60769767441860501</v>
       </c>
       <c r="FR4">
-        <v>105.099999999999</v>
+        <v>0.607768786127167</v>
       </c>
       <c r="FS4">
-        <v>105.684</v>
+        <v>0.60779310344827597</v>
       </c>
       <c r="FT4">
-        <v>106.275999999999</v>
+        <v>0.60781714285714294</v>
       </c>
       <c r="FU4">
-        <v>106.848</v>
+        <v>0.60820454545454505</v>
       </c>
       <c r="FV4">
-        <v>107.524</v>
+        <v>0.60842937853107304</v>
       </c>
       <c r="FW4">
-        <v>108.172</v>
+        <v>0.60874157303370502</v>
       </c>
       <c r="FX4">
-        <v>108.79600000000001</v>
+        <v>0.60871508379888195</v>
       </c>
       <c r="FY4">
-        <v>109.44</v>
+        <v>0.60888888888888804</v>
       </c>
       <c r="FZ4">
-        <v>110.04</v>
+        <v>0.60897237569060703</v>
       </c>
       <c r="GA4">
-        <v>110.615999999999</v>
+        <v>0.60892307692307701</v>
       </c>
       <c r="GB4">
-        <v>111.264</v>
+        <v>0.60896174863387897</v>
       </c>
       <c r="GC4">
-        <v>111.916</v>
+        <v>0.60926086956521697</v>
       </c>
       <c r="GD4">
-        <v>112.544</v>
+        <v>0.60929729729729698</v>
       </c>
       <c r="GE4">
-        <v>113.136</v>
+        <v>0.60959139784946204</v>
       </c>
       <c r="GF4">
-        <v>113.736</v>
+        <v>0.60936898395721795</v>
       </c>
       <c r="GG4">
-        <v>114.4</v>
+        <v>0.609510638297872</v>
       </c>
       <c r="GH4">
-        <v>115.02800000000001</v>
+        <v>0.60926984126984096</v>
       </c>
       <c r="GI4">
-        <v>115.608</v>
+        <v>0.60926315789473695</v>
       </c>
       <c r="GJ4">
-        <v>116.252</v>
+        <v>0.60936125654450202</v>
       </c>
       <c r="GK4">
-        <v>116.84</v>
+        <v>0.60943749999999897</v>
       </c>
       <c r="GL4">
-        <v>117.42400000000001</v>
+        <v>0.60953367875647702</v>
       </c>
       <c r="GM4">
-        <v>118.032</v>
+        <v>0.60956701030927796</v>
       </c>
       <c r="GN4">
-        <v>118.648</v>
+        <v>0.60951794871794895</v>
       </c>
       <c r="GO4">
-        <v>119.21599999999999</v>
+        <v>0.60981632653061202</v>
       </c>
       <c r="GP4">
-        <v>119.816</v>
+        <v>0.60982741116751205</v>
       </c>
       <c r="GQ4">
-        <v>120.44</v>
+        <v>0.60977777777777797</v>
       </c>
       <c r="GR4">
-        <v>121.02</v>
+        <v>0.609768844221105</v>
       </c>
       <c r="GS4">
-        <v>121.684</v>
+        <v>0.60962000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:201">
@@ -16239,601 +16266,601 @@
         <v>0.47199999999999998</v>
       </c>
       <c r="C5">
-        <v>1.028</v>
+        <v>0.496</v>
       </c>
       <c r="D5">
-        <v>1.532</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="E5">
-        <v>1.992</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="F5">
-        <v>2.4839999999999902</v>
+        <v>0.49919999999999998</v>
       </c>
       <c r="G5">
-        <v>2.992</v>
+        <v>0.50266666666666604</v>
       </c>
       <c r="H5">
-        <v>3.508</v>
+        <v>0.5</v>
       </c>
       <c r="I5">
-        <v>4.0519999999999996</v>
+        <v>0.49249999999999999</v>
       </c>
       <c r="J5">
-        <v>4.5679999999999996</v>
+        <v>0.49288888888888799</v>
       </c>
       <c r="K5">
-        <v>5.0439999999999996</v>
+        <v>0.49759999999999999</v>
       </c>
       <c r="L5">
-        <v>5.5559999999999903</v>
+        <v>0.498181818181818</v>
       </c>
       <c r="M5">
-        <v>6.08</v>
+        <v>0.501</v>
       </c>
       <c r="N5">
-        <v>6.5759999999999996</v>
+        <v>0.50061538461538402</v>
       </c>
       <c r="O5">
-        <v>7.1360000000000001</v>
+        <v>0.502857142857143</v>
       </c>
       <c r="P5">
-        <v>7.6159999999999997</v>
+        <v>0.50586666666666602</v>
       </c>
       <c r="Q5">
-        <v>8.1519999999999992</v>
+        <v>0.50749999999999895</v>
       </c>
       <c r="R5">
-        <v>8.6999999999999993</v>
+        <v>0.50870588235294101</v>
       </c>
       <c r="S5">
-        <v>9.2319999999999904</v>
+        <v>0.51222222222222102</v>
       </c>
       <c r="T5">
-        <v>9.7319999999999904</v>
+        <v>0.51452631578947405</v>
       </c>
       <c r="U5">
-        <v>10.26</v>
+        <v>0.51739999999999997</v>
       </c>
       <c r="V5">
-        <v>10.755999999999901</v>
+        <v>0.51923809523809505</v>
       </c>
       <c r="W5">
-        <v>11.308</v>
+        <v>0.52181818181818196</v>
       </c>
       <c r="X5">
-        <v>11.8639999999999</v>
+        <v>0.52260869565217305</v>
       </c>
       <c r="Y5">
-        <v>12.431999999999899</v>
+        <v>0.52133333333333298</v>
       </c>
       <c r="Z5">
-        <v>12.952</v>
+        <v>0.52303999999999995</v>
       </c>
       <c r="AA5">
-        <v>13.496</v>
+        <v>0.52323076923077005</v>
       </c>
       <c r="AB5">
-        <v>14.068</v>
+        <v>0.52385185185185101</v>
       </c>
       <c r="AC5">
-        <v>14.584</v>
+        <v>0.52514285714285702</v>
       </c>
       <c r="AD5">
-        <v>15.036</v>
+        <v>0.52593103448275802</v>
       </c>
       <c r="AE5">
-        <v>15.552</v>
+        <v>0.52733333333333399</v>
       </c>
       <c r="AF5">
-        <v>16.091999999999899</v>
+        <v>0.52864516129032202</v>
       </c>
       <c r="AG5">
-        <v>16.623999999999899</v>
+        <v>0.52837500000000004</v>
       </c>
       <c r="AH5">
-        <v>17.135999999999999</v>
+        <v>0.52812121212121199</v>
       </c>
       <c r="AI5">
-        <v>17.692</v>
+        <v>0.52835294117647003</v>
       </c>
       <c r="AJ5">
-        <v>18.256</v>
+        <v>0.528914285714285</v>
       </c>
       <c r="AK5">
-        <v>18.788</v>
+        <v>0.52977777777777801</v>
       </c>
       <c r="AL5">
-        <v>19.344000000000001</v>
+        <v>0.53037837837837798</v>
       </c>
       <c r="AM5">
-        <v>19.896000000000001</v>
+        <v>0.53010526315789497</v>
       </c>
       <c r="AN5">
-        <v>20.456</v>
+        <v>0.52912820512820402</v>
       </c>
       <c r="AO5">
-        <v>21.004000000000001</v>
+        <v>0.53029999999999999</v>
       </c>
       <c r="AP5">
-        <v>21.543999999999901</v>
+        <v>0.53082926829268196</v>
       </c>
       <c r="AQ5">
-        <v>22.071999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="AR5">
-        <v>22.655999999999999</v>
+        <v>0.53032558139534802</v>
       </c>
       <c r="AS5">
-        <v>23.219999999999899</v>
+        <v>0.53018181818181798</v>
       </c>
       <c r="AT5">
-        <v>23.719999999999899</v>
+        <v>0.52915555555555405</v>
       </c>
       <c r="AU5">
-        <v>24.236000000000001</v>
+        <v>0.529826086956522</v>
       </c>
       <c r="AV5">
-        <v>24.795999999999999</v>
+        <v>0.52953191489361695</v>
       </c>
       <c r="AW5">
-        <v>25.399999999999899</v>
+        <v>0.53091666666666604</v>
       </c>
       <c r="AX5">
-        <v>25.931999999999999</v>
+        <v>0.53069387755102004</v>
       </c>
       <c r="AY5">
-        <v>26.483999999999899</v>
+        <v>0.53136000000000005</v>
       </c>
       <c r="AZ5">
-        <v>27.012</v>
+        <v>0.53270588235294003</v>
       </c>
       <c r="BA5">
-        <v>27.576000000000001</v>
+        <v>0.532076923076923</v>
       </c>
       <c r="BB5">
-        <v>28.164000000000001</v>
+        <v>0.53298113207547104</v>
       </c>
       <c r="BC5">
-        <v>28.675999999999998</v>
+        <v>0.533481481481481</v>
       </c>
       <c r="BD5">
-        <v>29.212</v>
+        <v>0.53309090909090895</v>
       </c>
       <c r="BE5">
-        <v>29.724</v>
+        <v>0.53321428571428497</v>
       </c>
       <c r="BF5">
-        <v>30.248000000000001</v>
+        <v>0.53361403508771899</v>
       </c>
       <c r="BG5">
-        <v>30.815999999999999</v>
+        <v>0.53358620689655001</v>
       </c>
       <c r="BH5">
-        <v>31.391999999999999</v>
+        <v>0.53342372881355904</v>
       </c>
       <c r="BI5">
-        <v>31.9</v>
+        <v>0.53306666666666602</v>
       </c>
       <c r="BJ5">
-        <v>32.4359999999999</v>
+        <v>0.53357377049180299</v>
       </c>
       <c r="BK5">
-        <v>33.024000000000001</v>
+        <v>0.53412903225806396</v>
       </c>
       <c r="BL5">
-        <v>33.520000000000003</v>
+        <v>0.53384126984126901</v>
       </c>
       <c r="BM5">
-        <v>34.064</v>
+        <v>0.53393749999999995</v>
       </c>
       <c r="BN5">
-        <v>34.591999999999899</v>
+        <v>0.53396923076923097</v>
       </c>
       <c r="BO5">
-        <v>35.167999999999999</v>
+        <v>0.53381818181818197</v>
       </c>
       <c r="BP5">
-        <v>35.711999999999897</v>
+        <v>0.53367164179104398</v>
       </c>
       <c r="BQ5">
-        <v>36.26</v>
+        <v>0.53358823529411703</v>
       </c>
       <c r="BR5">
-        <v>36.771999999999998</v>
+        <v>0.53327536231883998</v>
       </c>
       <c r="BS5">
-        <v>37.267999999999901</v>
+        <v>0.53331428571428596</v>
       </c>
       <c r="BT5">
-        <v>37.875999999999998</v>
+        <v>0.53357746478873103</v>
       </c>
       <c r="BU5">
-        <v>38.384</v>
+        <v>0.53355555555555501</v>
       </c>
       <c r="BV5">
-        <v>38.927999999999997</v>
+        <v>0.53353424657534199</v>
       </c>
       <c r="BW5">
-        <v>39.479999999999997</v>
+        <v>0.53335135135135103</v>
       </c>
       <c r="BX5">
-        <v>40.031999999999897</v>
+        <v>0.53274666666666604</v>
       </c>
       <c r="BY5">
-        <v>40.619999999999997</v>
+        <v>0.53347368421052599</v>
       </c>
       <c r="BZ5">
-        <v>41.176000000000002</v>
+        <v>0.53402597402597396</v>
       </c>
       <c r="CA5">
-        <v>41.752000000000002</v>
+        <v>0.533641025641025</v>
       </c>
       <c r="CB5">
-        <v>42.335999999999999</v>
+        <v>0.53362025316455697</v>
       </c>
       <c r="CC5">
-        <v>42.88</v>
+        <v>0.53325</v>
       </c>
       <c r="CD5">
-        <v>43.44</v>
+        <v>0.53343209876543196</v>
       </c>
       <c r="CE5">
-        <v>44.003999999999998</v>
+        <v>0.53356097560975502</v>
       </c>
       <c r="CF5">
-        <v>44.479999999999897</v>
+        <v>0.53407228915662597</v>
       </c>
       <c r="CG5">
-        <v>45.043999999999997</v>
+        <v>0.53414285714285603</v>
       </c>
       <c r="CH5">
-        <v>45.588000000000001</v>
+        <v>0.53416470588235299</v>
       </c>
       <c r="CI5">
-        <v>46.152000000000001</v>
+        <v>0.53399999999999903</v>
       </c>
       <c r="CJ5">
-        <v>46.683999999999997</v>
+        <v>0.53434482758620705</v>
       </c>
       <c r="CK5">
-        <v>47.192</v>
+        <v>0.53395454545454502</v>
       </c>
       <c r="CL5">
-        <v>47.695999999999998</v>
+        <v>0.53420224719101095</v>
       </c>
       <c r="CM5">
-        <v>48.244</v>
+        <v>0.53457777777777804</v>
       </c>
       <c r="CN5">
-        <v>48.835999999999999</v>
+        <v>0.53406593406593295</v>
       </c>
       <c r="CO5">
-        <v>49.311999999999998</v>
+        <v>0.53386956521739104</v>
       </c>
       <c r="CP5">
-        <v>49.863999999999997</v>
+        <v>0.53410752688171903</v>
       </c>
       <c r="CQ5">
-        <v>50.411999999999999</v>
+        <v>0.53502127659574505</v>
       </c>
       <c r="CR5">
-        <v>50.959999999999901</v>
+        <v>0.53545263157894696</v>
       </c>
       <c r="CS5">
-        <v>51.484000000000002</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="CT5">
-        <v>52.036000000000001</v>
+        <v>0.53653608247422602</v>
       </c>
       <c r="CU5">
-        <v>52.552</v>
+        <v>0.53673469387755002</v>
       </c>
       <c r="CV5">
-        <v>53.027999999999999</v>
+        <v>0.53680808080807996</v>
       </c>
       <c r="CW5">
-        <v>53.603999999999999</v>
+        <v>0.53683999999999898</v>
       </c>
       <c r="CX5">
-        <v>54.143999999999998</v>
+        <v>0.53683168316831698</v>
       </c>
       <c r="CY5">
-        <v>54.647999999999897</v>
+        <v>0.536392156862745</v>
       </c>
       <c r="CZ5">
-        <v>55.228000000000002</v>
+        <v>0.536233009708737</v>
       </c>
       <c r="DA5">
-        <v>55.811999999999998</v>
+        <v>0.53611538461538399</v>
       </c>
       <c r="DB5">
-        <v>56.404000000000003</v>
+        <v>0.53599999999999903</v>
       </c>
       <c r="DC5">
-        <v>56.936</v>
+        <v>0.53592452830188697</v>
       </c>
       <c r="DD5">
-        <v>57.444000000000003</v>
+        <v>0.53618691588784995</v>
       </c>
       <c r="DE5">
-        <v>57.927999999999997</v>
+        <v>0.536481481481481</v>
       </c>
       <c r="DF5">
-        <v>58.472000000000001</v>
+        <v>0.535743119266054</v>
       </c>
       <c r="DG5">
-        <v>59.052</v>
+        <v>0.53614545454545404</v>
       </c>
       <c r="DH5">
-        <v>59.616</v>
+        <v>0.53574774774774703</v>
       </c>
       <c r="DI5">
-        <v>60.171999999999997</v>
+        <v>0.53525</v>
       </c>
       <c r="DJ5">
-        <v>60.671999999999997</v>
+        <v>0.53532743362831703</v>
       </c>
       <c r="DK5">
-        <v>61.268000000000001</v>
+        <v>0.53557894736842104</v>
       </c>
       <c r="DL5">
-        <v>61.76</v>
+        <v>0.53551304347826001</v>
       </c>
       <c r="DM5">
-        <v>62.247999999999998</v>
+        <v>0.53541379310344706</v>
       </c>
       <c r="DN5">
-        <v>62.787999999999997</v>
+        <v>0.53500854700854705</v>
       </c>
       <c r="DO5">
-        <v>63.287999999999997</v>
+        <v>0.53454237288135598</v>
       </c>
       <c r="DP5">
-        <v>63.816000000000003</v>
+        <v>0.53458823529411703</v>
       </c>
       <c r="DQ5">
-        <v>64.375999999999905</v>
+        <v>0.53480000000000005</v>
       </c>
       <c r="DR5">
-        <v>64.924000000000007</v>
+        <v>0.53464462809917301</v>
       </c>
       <c r="DS5">
-        <v>65.471999999999895</v>
+        <v>0.53439344262294997</v>
       </c>
       <c r="DT5">
-        <v>66.035999999999902</v>
+        <v>0.533983739837397</v>
       </c>
       <c r="DU5">
-        <v>66.575999999999993</v>
+        <v>0.53393548387096801</v>
       </c>
       <c r="DV5">
-        <v>67.048000000000002</v>
+        <v>0.53391999999999895</v>
       </c>
       <c r="DW5">
-        <v>67.647999999999996</v>
+        <v>0.53425396825396798</v>
       </c>
       <c r="DX5">
-        <v>68.176000000000002</v>
+        <v>0.53461417322834603</v>
       </c>
       <c r="DY5">
-        <v>68.72</v>
+        <v>0.53481250000000002</v>
       </c>
       <c r="DZ5">
-        <v>69.296000000000006</v>
+        <v>0.53503875968992198</v>
       </c>
       <c r="EA5">
-        <v>69.811999999999998</v>
+        <v>0.53559999999999997</v>
       </c>
       <c r="EB5">
-        <v>70.331999999999894</v>
+        <v>0.53554198473282499</v>
       </c>
       <c r="EC5">
-        <v>70.867999999999896</v>
+        <v>0.53575757575757499</v>
       </c>
       <c r="ED5">
-        <v>71.427999999999997</v>
+        <v>0.53615037593984904</v>
       </c>
       <c r="EE5">
-        <v>71.94</v>
+        <v>0.53635820895522401</v>
       </c>
       <c r="EF5">
-        <v>72.451999999999899</v>
+        <v>0.53650370370370404</v>
       </c>
       <c r="EG5">
-        <v>73.06</v>
+        <v>0.53647058823529303</v>
       </c>
       <c r="EH5">
-        <v>73.531999999999996</v>
+        <v>0.536379562043796</v>
       </c>
       <c r="EI5">
-        <v>74.12</v>
+        <v>0.53571014492753399</v>
       </c>
       <c r="EJ5">
-        <v>74.652000000000001</v>
+        <v>0.53594244604316499</v>
       </c>
       <c r="EK5">
-        <v>75.139999999999901</v>
+        <v>0.53614285714285803</v>
       </c>
       <c r="EL5">
-        <v>75.683999999999997</v>
+        <v>0.53648226950354705</v>
       </c>
       <c r="EM5">
-        <v>76.188000000000002</v>
+        <v>0.53639436619718295</v>
       </c>
       <c r="EN5">
-        <v>76.695999999999898</v>
+        <v>0.53630769230769204</v>
       </c>
       <c r="EO5">
-        <v>77.215999999999894</v>
+        <v>0.53669444444444503</v>
       </c>
       <c r="EP5">
-        <v>77.731999999999999</v>
+        <v>0.53688275862068902</v>
       </c>
       <c r="EQ5">
-        <v>78.248000000000005</v>
+        <v>0.53715068493150597</v>
       </c>
       <c r="ER5">
-        <v>78.808000000000007</v>
+        <v>0.53706122448979599</v>
       </c>
       <c r="ES5">
-        <v>79.316000000000003</v>
+        <v>0.53702702702702698</v>
       </c>
       <c r="ET5">
-        <v>79.852000000000004</v>
+        <v>0.53734228187919497</v>
       </c>
       <c r="EU5">
-        <v>80.379999999999896</v>
+        <v>0.53746666666666698</v>
       </c>
       <c r="EV5">
-        <v>80.908000000000001</v>
+        <v>0.53782781456953499</v>
       </c>
       <c r="EW5">
-        <v>81.451999999999998</v>
+        <v>0.53792105263157897</v>
       </c>
       <c r="EX5">
-        <v>82.043999999999897</v>
+        <v>0.53764705882352903</v>
       </c>
       <c r="EY5">
-        <v>82.596000000000004</v>
+        <v>0.53753246753246697</v>
       </c>
       <c r="EZ5">
-        <v>83.151999999999902</v>
+        <v>0.53752258064516101</v>
       </c>
       <c r="FA5">
-        <v>83.683999999999997</v>
+        <v>0.53735897435897395</v>
       </c>
       <c r="FB5">
-        <v>84.227999999999994</v>
+        <v>0.53729936305732495</v>
       </c>
       <c r="FC5">
-        <v>84.751999999999995</v>
+        <v>0.53734177215189904</v>
       </c>
       <c r="FD5">
-        <v>85.256</v>
+        <v>0.53740880503144595</v>
       </c>
       <c r="FE5">
-        <v>85.775999999999897</v>
+        <v>0.537775</v>
       </c>
       <c r="FF5">
-        <v>86.367999999999995</v>
+        <v>0.53776397515527996</v>
       </c>
       <c r="FG5">
-        <v>86.963999999999899</v>
+        <v>0.538024691358024</v>
       </c>
       <c r="FH5">
-        <v>87.492000000000004</v>
+        <v>0.53796319018404803</v>
       </c>
       <c r="FI5">
-        <v>88.043999999999997</v>
+        <v>0.53775609756097598</v>
       </c>
       <c r="FJ5">
-        <v>88.543999999999997</v>
+        <v>0.53772121212121105</v>
       </c>
       <c r="FK5">
-        <v>89.111999999999995</v>
+        <v>0.53790361445783097</v>
       </c>
       <c r="FL5">
-        <v>89.655999999999906</v>
+        <v>0.53820359281437102</v>
       </c>
       <c r="FM5">
-        <v>90.203999999999994</v>
+        <v>0.53807142857142798</v>
       </c>
       <c r="FN5">
-        <v>90.775999999999897</v>
+        <v>0.53789349112425899</v>
       </c>
       <c r="FO5">
-        <v>91.263999999999996</v>
+        <v>0.53809411764705894</v>
       </c>
       <c r="FP5">
-        <v>91.823999999999998</v>
+        <v>0.53803508771929898</v>
       </c>
       <c r="FQ5">
-        <v>92.355999999999995</v>
+        <v>0.53816279069767403</v>
       </c>
       <c r="FR5">
-        <v>92.891999999999996</v>
+        <v>0.53831213872832395</v>
       </c>
       <c r="FS5">
-        <v>93.383999999999901</v>
+        <v>0.53882758620689597</v>
       </c>
       <c r="FT5">
-        <v>93.924000000000007</v>
+        <v>0.53871999999999898</v>
       </c>
       <c r="FU5">
-        <v>94.435999999999893</v>
+        <v>0.538886363636363</v>
       </c>
       <c r="FV5">
-        <v>94.9879999999999</v>
+        <v>0.53900564971751397</v>
       </c>
       <c r="FW5">
-        <v>95.543999999999997</v>
+        <v>0.53883146067415599</v>
       </c>
       <c r="FX5">
-        <v>96.123999999999896</v>
+        <v>0.53877094972066997</v>
       </c>
       <c r="FY5">
-        <v>96.62</v>
+        <v>0.53875555555555499</v>
       </c>
       <c r="FZ5">
-        <v>97.155999999999906</v>
+        <v>0.53867403314917095</v>
       </c>
       <c r="GA5">
-        <v>97.712000000000003</v>
+        <v>0.53832967032967005</v>
       </c>
       <c r="GB5">
-        <v>98.207999999999899</v>
+        <v>0.538229508196721</v>
       </c>
       <c r="GC5">
-        <v>98.727999999999994</v>
+        <v>0.53821739130434698</v>
       </c>
       <c r="GD5">
-        <v>99.248000000000005</v>
+        <v>0.53783783783783701</v>
       </c>
       <c r="GE5">
-        <v>99.772000000000006</v>
+        <v>0.53791397849462297</v>
       </c>
       <c r="GF5">
-        <v>100.28</v>
+        <v>0.53805347593582797</v>
       </c>
       <c r="GG5">
-        <v>100.864</v>
+        <v>0.53804255319148897</v>
       </c>
       <c r="GH5">
-        <v>101.456</v>
+        <v>0.53788359788359696</v>
       </c>
       <c r="GI5">
-        <v>102.036</v>
+        <v>0.53791578947368401</v>
       </c>
       <c r="GJ5">
-        <v>102.55999999999899</v>
+        <v>0.53796858638743394</v>
       </c>
       <c r="GK5">
-        <v>103.116</v>
+        <v>0.53789583333333302</v>
       </c>
       <c r="GL5">
-        <v>103.619999999999</v>
+        <v>0.53788601036269401</v>
       </c>
       <c r="GM5">
-        <v>104.215999999999</v>
+        <v>0.53795876288659705</v>
       </c>
       <c r="GN5">
-        <v>104.77200000000001</v>
+        <v>0.53807179487179402</v>
       </c>
       <c r="GO5">
-        <v>105.3</v>
+        <v>0.53814285714285703</v>
       </c>
       <c r="GP5">
-        <v>105.884</v>
+        <v>0.53827411167512695</v>
       </c>
       <c r="GQ5">
-        <v>106.444</v>
+        <v>0.53842424242424303</v>
       </c>
       <c r="GR5">
-        <v>106.968</v>
+        <v>0.53859296482412</v>
       </c>
       <c r="GS5">
-        <v>107.5</v>
+        <v>0.53864000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/test/datafiles/multiepsilon.xlsx
+++ b/test/datafiles/multiepsilon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="7635" windowHeight="6210" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="7635" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="bestArmPercentage" sheetId="4" r:id="rId1"/>
@@ -751,8 +751,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.9906190748238484E-2"/>
-          <c:y val="1.0221976021841489E-2"/>
+          <c:x val="2.9906190748238481E-2"/>
+          <c:y val="1.0221976021841488E-2"/>
           <c:w val="0.80002541874694688"/>
           <c:h val="0.93440681095767553"/>
         </c:manualLayout>
@@ -3895,24 +3895,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="103523072"/>
-        <c:axId val="103524608"/>
+        <c:axId val="86086400"/>
+        <c:axId val="86087936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103523072"/>
+        <c:axId val="86086400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103524608"/>
+        <c:crossAx val="86087936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103524608"/>
+        <c:axId val="86087936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3920,7 +3920,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103523072"/>
+        <c:crossAx val="86086400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3933,7 +3933,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7083,24 +7083,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56337152"/>
-        <c:axId val="56338688"/>
+        <c:axId val="86398464"/>
+        <c:axId val="86400000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56337152"/>
+        <c:axId val="86398464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56338688"/>
+        <c:crossAx val="86400000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56338688"/>
+        <c:axId val="86400000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7108,7 +7108,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56337152"/>
+        <c:crossAx val="86398464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7121,7 +7121,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10271,24 +10271,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="106154240"/>
-        <c:axId val="106180608"/>
+        <c:axId val="86829312"/>
+        <c:axId val="86466560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106154240"/>
+        <c:axId val="86829312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106180608"/>
+        <c:crossAx val="86466560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106180608"/>
+        <c:axId val="86466560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10296,7 +10296,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106154240"/>
+        <c:crossAx val="86829312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10309,7 +10309,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10319,16 +10319,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>800099</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10354,16 +10354,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10389,16 +10389,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10719,7 +10719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GS5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
@@ -13797,7 +13797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
